--- a/Season_Trophies/88.xlsx
+++ b/Season_Trophies/88.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,7 +423,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>11162</t>
+          <t>46771</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -450,17 +450,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>14188</t>
+          <t>47950</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>47928278</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>"落日幻影 哈哈哈"</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -477,17 +477,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>48463</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -536,12 +536,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6510348</t>
+          <t>59100545</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bonpoisson</t>
+          <t>"black dragon"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -563,12 +563,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>59100545</t>
+          <t>59093405</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"black dragon"</t>
+          <t>永恒不朽6</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -590,12 +590,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>59095922</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>xxxx7</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -617,17 +617,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>59093405</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>永恒不朽6</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -639,71 +639,71 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>4510</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3009</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>4859</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>59095922</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>xxxx7</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3001</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>6192</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2976</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7719</t>
+          <t>10021</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2518</t>
+          <t>2909</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>13721</t>
+          <t>16516</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2820</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>14435</t>
+          <t>23868</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2740</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>14430</t>
+          <t>41829</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2520</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>24857</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2498</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>2250</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3080</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>3491</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3035</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>5250</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2994</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>5982</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2693</t>
+          <t>2980</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3984</t>
+          <t>7280</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,14 +983,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2602</t>
+          <t>2956</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4042</t>
+          <t>8607</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2599</t>
+          <t>2932</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>8173</t>
+          <t>12397</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2516</t>
+          <t>2872</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>12503</t>
+          <t>18035</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2805</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>12512</t>
+          <t>19504</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2791</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>17899</t>
+          <t>19564</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2790</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>24341</t>
+          <t>26337</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2499</t>
+          <t>2706</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>24702</t>
+          <t>38168</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2498</t>
+          <t>2544</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>58588</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2491</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>8742</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2930</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>8124</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2941</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>9622</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2916</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>607</t>
+          <t>12999</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2887</t>
+          <t>2863</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5344</t>
+          <t>13790</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Globalking1001</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2556</t>
+          <t>2852</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5428</t>
+          <t>22467</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2554</t>
+          <t>2758</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6122</t>
+          <t>23573</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2538</t>
+          <t>2744</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>8644</t>
+          <t>28152</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>Globalking1001</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2515</t>
+          <t>2679</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>9182</t>
+          <t>28358</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2513</t>
+          <t>2676</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>11571</t>
+          <t>23696</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2743</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>12599</t>
+          <t>32253</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2614</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>23159</t>
+          <t>32437</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2499</t>
+          <t>2610</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>24709</t>
+          <t>35010</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,14 +1550,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2498</t>
+          <t>2576</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>40057</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2530</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>31113</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2631</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>40415</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2528</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>40730</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2527</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>43240</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2514</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>48008</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>51859</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2499</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>52413</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2498</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>52518</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2498</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>59059</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>56500325</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>haruharuyukizg9735</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2488</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>76155</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>10666881</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>"hovo andreasyan"</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1499</t>
         </is>
       </c>
     </row>
@@ -1859,12 +1859,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1881,27 +1881,27 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>2731</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3061</t>
         </is>
       </c>
     </row>
@@ -1913,12 +1913,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1940,12 +1940,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1967,12 +1967,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1989,17 +1989,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>18998</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2796</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>18591</t>
+          <t>48025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2043,17 +2043,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>53141</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2498</t>
         </is>
       </c>
     </row>
@@ -2097,17 +2097,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>34607</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2581</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>12570</t>
+          <t>45838</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,14 +2144,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2505</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>22225</t>
+          <t>54807</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2497</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>74879</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,7 +2198,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1500</t>
         </is>
       </c>
     </row>
@@ -2588,12 +2588,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2615,17 +2615,17 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2642,12 +2642,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2669,12 +2669,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2691,17 +2691,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>51020</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2499</t>
         </is>
       </c>
     </row>
@@ -2723,12 +2723,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2745,17 +2745,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>75631</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>59106471</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>anime</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1499</t>
         </is>
       </c>
     </row>
@@ -3047,12 +3047,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>59106471</t>
+          <t>59112086</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>anime</t>
+          <t>sigma</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3074,17 +3074,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>59112086</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>sigma</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3101,12 +3101,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3128,12 +3128,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3155,12 +3155,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3182,12 +3182,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3209,12 +3209,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3263,12 +3263,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3290,12 +3290,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>10636651</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>"Ismail Aflou"</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3304,33 +3304,6 @@
         </is>
       </c>
       <c r="E109" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>10636651</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>"Ismail Aflou"</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/88.xlsx
+++ b/Season_Trophies/88.xlsx
@@ -423,17 +423,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>46771</t>
+          <t>44646</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2557</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>47950</t>
+          <t>49113</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2519</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>48463</t>
+          <t>53365</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -612,17 +612,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>3712</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>"Zephyr zgx"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,14 +632,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3149</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>4760</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3009</t>
+          <t>3121</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4859</t>
+          <t>7854</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3001</t>
+          <t>3052</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6192</t>
+          <t>11649</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2976</t>
+          <t>2991</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>10021</t>
+          <t>13158</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2909</t>
+          <t>2972</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>16516</t>
+          <t>18225</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2820</t>
+          <t>2904</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>23868</t>
+          <t>22513</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2740</t>
+          <t>2852</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>41829</t>
+          <t>33116</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,14 +821,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>2738</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>55758</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -848,14 +848,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2498</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2250</t>
+          <t>90</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3080</t>
+          <t>3515</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3491</t>
+          <t>2318</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,14 +902,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>3193</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>5250</t>
+          <t>8252</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2994</t>
+          <t>3044</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5982</t>
+          <t>9282</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2980</t>
+          <t>3026</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>7280</t>
+          <t>9407</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2956</t>
+          <t>3024</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8607</t>
+          <t>13563</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2932</t>
+          <t>2967</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>12397</t>
+          <t>13522</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2872</t>
+          <t>2967</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>18035</t>
+          <t>15946</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2805</t>
+          <t>2934</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>19504</t>
+          <t>17828</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2791</t>
+          <t>2909</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>19564</t>
+          <t>30056</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,14 +1118,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2790</t>
+          <t>2777</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>26337</t>
+          <t>35204</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1152,7 +1152,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>38168</t>
+          <t>42558</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1172,14 +1172,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2544</t>
+          <t>2582</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>58588</t>
+          <t>60155</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1206,7 +1206,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>8742</t>
+          <t>3735</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1226,14 +1226,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2930</t>
+          <t>3148</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8124</t>
+          <t>16032</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1253,14 +1253,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2941</t>
+          <t>2933</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>9622</t>
+          <t>16384</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2916</t>
+          <t>2929</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>12999</t>
+          <t>17522</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,14 +1307,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2863</t>
+          <t>2913</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>13790</t>
+          <t>18198</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2852</t>
+          <t>2904</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>22467</t>
+          <t>16121</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>Globalking1001</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2758</t>
+          <t>2932</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>23573</t>
+          <t>23676</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2744</t>
+          <t>2839</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>28152</t>
+          <t>25816</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Globalking1001</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2679</t>
+          <t>2818</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>28358</t>
+          <t>28801</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2676</t>
+          <t>2790</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>23696</t>
+          <t>32911</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2743</t>
+          <t>2741</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>32253</t>
+          <t>32948</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2614</t>
+          <t>2741</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>32437</t>
+          <t>32959</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2740</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>35010</t>
+          <t>34997</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2576</t>
+          <t>2709</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>40057</t>
+          <t>37196</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2530</t>
+          <t>2672</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>31113</t>
+          <t>38758</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2631</t>
+          <t>2644</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>40415</t>
+          <t>39102</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2528</t>
+          <t>2638</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>40730</t>
+          <t>40481</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2527</t>
+          <t>2614</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>43240</t>
+          <t>41996</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2514</t>
+          <t>2590</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>48008</t>
+          <t>48143</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2526</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>51859</t>
+          <t>48454</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2499</t>
+          <t>2524</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>52413</t>
+          <t>53387</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2498</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>52518</t>
+          <t>53518</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2498</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>59059</t>
+          <t>54746</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>56500325</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>haruharuyukizg9735</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2488</t>
+          <t>2499</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>76155</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>10666881</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"hovo andreasyan"</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,51 +1847,51 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>7927</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3051</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2731</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3061</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -1913,12 +1913,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1940,12 +1940,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1962,17 +1962,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>28188</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2796</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>18998</t>
+          <t>46665</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2796</t>
+          <t>2538</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>48025</t>
+          <t>55519</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2498</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>53141</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>54588689</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>㊥墨衍枫迹☜</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2498</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>35616</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2699</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>34607</t>
+          <t>47944</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2581</t>
+          <t>2527</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>45838</t>
+          <t>49207</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>41837764</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>好风光会长</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,14 +2144,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2505</t>
+          <t>2519</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>54807</t>
+          <t>50485</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2497</t>
+          <t>2513</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>74879</t>
+          <t>54164</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>2499</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>78110</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,7 +2225,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1500</t>
         </is>
       </c>
     </row>
@@ -2237,12 +2237,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2264,12 +2264,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2610,7 +2610,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>50127</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2514</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>29155</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2786</t>
         </is>
       </c>
     </row>
@@ -2669,12 +2669,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2691,7 +2691,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>51020</t>
+          <t>54356</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>75631</t>
+          <t>78816</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">

--- a/Season_Trophies/88.xlsx
+++ b/Season_Trophies/88.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,7 +423,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>44646</t>
+          <t>34863</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2557</t>
+          <t>2859</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>49113</t>
+          <t>36452</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2519</t>
+          <t>2827</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>53365</t>
+          <t>55008</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2519</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>79452</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>44437839</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>strangetamer828</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1595</t>
         </is>
       </c>
     </row>
@@ -536,12 +536,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>59100545</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"black dragon"</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -563,12 +563,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>59093405</t>
+          <t>59100545</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>永恒不朽6</t>
+          <t>"black dragon"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -590,12 +590,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>59095922</t>
+          <t>59093405</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>xxxx7</t>
+          <t>永恒不朽6</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -612,44 +612,44 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3712</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>59095922</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"Zephyr zgx"</t>
+          <t>xxxx7</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3149</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4760</t>
+          <t>15349</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>"Zephyr zgx"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3121</t>
+          <t>3224</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7854</t>
+          <t>4525</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3052</t>
+          <t>3538</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11649</t>
+          <t>6458</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2991</t>
+          <t>3467</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>13158</t>
+          <t>7911</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2972</t>
+          <t>3423</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>18225</t>
+          <t>10220</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,14 +767,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2904</t>
+          <t>3356</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>22513</t>
+          <t>22459</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2852</t>
+          <t>3088</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>33116</t>
+          <t>23591</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2738</t>
+          <t>3066</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>55758</t>
+          <t>41334</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2498</t>
+          <t>2732</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>52552</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3515</t>
+          <t>2540</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2318</t>
+          <t>5679</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3193</t>
+          <t>3495</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>8252</t>
+          <t>7815</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3044</t>
+          <t>3426</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>9282</t>
+          <t>8436</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3026</t>
+          <t>3407</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>9407</t>
+          <t>9716</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3024</t>
+          <t>3370</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>13563</t>
+          <t>15222</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2967</t>
+          <t>3226</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>13522</t>
+          <t>18145</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2967</t>
+          <t>3165</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>15946</t>
+          <t>19662</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2934</t>
+          <t>3137</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>17828</t>
+          <t>26614</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2909</t>
+          <t>3010</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>30056</t>
+          <t>27390</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2777</t>
+          <t>2997</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>35204</t>
+          <t>28271</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2706</t>
+          <t>2982</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>42558</t>
+          <t>34790</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,14 +1172,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2582</t>
+          <t>2860</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>60155</t>
+          <t>40878</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2491</t>
+          <t>2742</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3735</t>
+          <t>45888</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3148</t>
+          <t>2627</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>16032</t>
+          <t>5496</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2933</t>
+          <t>3502</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>16384</t>
+          <t>10533</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2929</t>
+          <t>3347</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>17522</t>
+          <t>11346</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2913</t>
+          <t>3324</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>18198</t>
+          <t>12193</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2904</t>
+          <t>3302</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>16121</t>
+          <t>12249</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Globalking1001</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2932</t>
+          <t>3300</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>23676</t>
+          <t>22849</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2839</t>
+          <t>3080</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>25816</t>
+          <t>23529</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>Globalking1001</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2818</t>
+          <t>3067</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>28801</t>
+          <t>25491</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2790</t>
+          <t>3031</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>32911</t>
+          <t>26626</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2741</t>
+          <t>3010</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>32948</t>
+          <t>27320</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2741</t>
+          <t>2998</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>32959</t>
+          <t>27523</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2740</t>
+          <t>2996</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>34997</t>
+          <t>29425</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2709</t>
+          <t>2962</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>37196</t>
+          <t>31737</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2672</t>
+          <t>2917</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>38758</t>
+          <t>31792</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2644</t>
+          <t>2916</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>39102</t>
+          <t>33965</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2638</t>
+          <t>2875</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>40481</t>
+          <t>40713</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>59020292</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>Player-59020292</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2614</t>
+          <t>2745</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>41996</t>
+          <t>40898</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2590</t>
+          <t>2741</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>48143</t>
+          <t>41535</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2526</t>
+          <t>2727</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>48454</t>
+          <t>43806</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2524</t>
+          <t>2671</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>53387</t>
+          <t>43886</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2669</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>53518</t>
+          <t>52613</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2539</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>54746</t>
+          <t>54484</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2499</t>
+          <t>2523</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>54650</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,61 +1847,61 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2522</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>7927</t>
+          <t>58416</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3051</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>59393</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2499</t>
         </is>
       </c>
     </row>
@@ -1913,17 +1913,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -1935,17 +1935,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>47207</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>41837764</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>好风光会长</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2604</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>28188</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2796</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>46665</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2538</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>55519</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2498</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>23240</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>54588689</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>㊥墨衍枫迹☜</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3073</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>35616</t>
+          <t>31687</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2699</t>
+          <t>2918</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>47944</t>
+          <t>61024</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2527</t>
+          <t>2495</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>49207</t>
+          <t>34792</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>41837764</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>好风光会长</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,14 +2144,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2519</t>
+          <t>2860</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>50485</t>
+          <t>47675</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2513</t>
+          <t>2597</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>54164</t>
+          <t>54468</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2499</t>
+          <t>2523</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>78110</t>
+          <t>55091</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>2519</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>61497</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2493</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>84798</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,7 +2279,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1500</t>
         </is>
       </c>
     </row>
@@ -2291,12 +2291,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2318,12 +2318,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2345,12 +2345,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2372,12 +2372,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2426,12 +2426,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2480,12 +2480,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2507,12 +2507,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2561,12 +2561,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2588,12 +2588,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2610,44 +2610,44 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>50127</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2514</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>29155</t>
+          <t>53882</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,24 +2657,24 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2786</t>
+          <t>2528</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>40085</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2760</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>54356</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2499</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>62442</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2490</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>78816</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>59106471</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>anime</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>85393</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>59106471</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>anime</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1499</t>
         </is>
       </c>
     </row>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2831,12 +2831,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2858,12 +2858,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2885,12 +2885,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2912,12 +2912,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2939,12 +2939,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2966,12 +2966,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3020,12 +3020,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3047,12 +3047,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>59112086</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>sigma</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3074,17 +3074,17 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>59112086</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>sigma</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -3101,12 +3101,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3128,12 +3128,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3155,12 +3155,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3182,12 +3182,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3209,12 +3209,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3263,12 +3263,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3290,20 +3290,47 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
+          <t>9913517</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>"Kenny Chan"</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
           <t>10636651</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t>"Ismail Aflou"</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/88.xlsx
+++ b/Season_Trophies/88.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,7 +423,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>34863</t>
+          <t>33042</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2859</t>
+          <t>2937</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>36452</t>
+          <t>38026</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -477,7 +477,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>55008</t>
+          <t>55809</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -504,7 +504,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>79452</t>
+          <t>80094</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -639,7 +639,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>15349</t>
+          <t>17222</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3224</t>
+          <t>3262</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4525</t>
+          <t>1588</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3538</t>
+          <t>3797</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6458</t>
+          <t>5511</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3467</t>
+          <t>3589</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7911</t>
+          <t>7408</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3423</t>
+          <t>3522</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10220</t>
+          <t>9027</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3356</t>
+          <t>3473</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>22459</t>
+          <t>13883</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3088</t>
+          <t>3345</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>23591</t>
+          <t>25896</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,14 +821,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3066</t>
+          <t>3086</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>41334</t>
+          <t>42579</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -848,14 +848,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2732</t>
+          <t>2729</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>52552</t>
+          <t>53558</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2540</t>
+          <t>2539</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5679</t>
+          <t>7318</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3495</t>
+          <t>3525</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7815</t>
+          <t>6725</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3426</t>
+          <t>3544</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>8436</t>
+          <t>9064</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3407</t>
+          <t>3472</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>9716</t>
+          <t>11189</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3370</t>
+          <t>3416</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>15222</t>
+          <t>11970</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3226</t>
+          <t>3395</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>18145</t>
+          <t>20020</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3165</t>
+          <t>3201</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>19662</t>
+          <t>20337</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3137</t>
+          <t>3195</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>26614</t>
+          <t>24745</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,14 +1091,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3010</t>
+          <t>3108</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>27390</t>
+          <t>28513</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1118,14 +1118,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2997</t>
+          <t>3030</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>28271</t>
+          <t>31104</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1145,14 +1145,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2982</t>
+          <t>2978</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>34790</t>
+          <t>36488</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1179,7 +1179,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>40878</t>
+          <t>41619</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2742</t>
+          <t>2752</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>45888</t>
+          <t>46941</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1226,14 +1226,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2627</t>
+          <t>2626</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5496</t>
+          <t>8198</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3502</t>
+          <t>3498</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>10533</t>
+          <t>10729</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3347</t>
+          <t>3428</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>11346</t>
+          <t>13693</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>49043337</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>FanXiFang1976</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3324</t>
+          <t>3350</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>12193</t>
+          <t>14407</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3302</t>
+          <t>3332</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>12249</t>
+          <t>14743</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3300</t>
+          <t>3323</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>22849</t>
+          <t>15119</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3080</t>
+          <t>3314</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>23529</t>
+          <t>18355</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Globalking1001</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3067</t>
+          <t>3236</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>25491</t>
+          <t>24634</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>Globalking1001</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3031</t>
+          <t>3110</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>26626</t>
+          <t>25039</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3010</t>
+          <t>3102</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>27320</t>
+          <t>26455</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2998</t>
+          <t>3074</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>27523</t>
+          <t>28562</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2996</t>
+          <t>3029</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>29425</t>
+          <t>30267</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2962</t>
+          <t>2996</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>31737</t>
+          <t>30280</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2917</t>
+          <t>2995</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>31792</t>
+          <t>31164</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2916</t>
+          <t>2977</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>33965</t>
+          <t>33198</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2875</t>
+          <t>2933</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>40713</t>
+          <t>36268</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>59020292</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Player-59020292</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2745</t>
+          <t>2865</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>40898</t>
+          <t>40255</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>59020292</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>Player-59020292</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2741</t>
+          <t>2783</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>41535</t>
+          <t>41368</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2727</t>
+          <t>2758</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>43806</t>
+          <t>41426</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,14 +1739,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2671</t>
+          <t>2756</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>43886</t>
+          <t>41676</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2669</t>
+          <t>2750</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>52613</t>
+          <t>44245</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2539</t>
+          <t>2687</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>54484</t>
+          <t>53619</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2523</t>
+          <t>2538</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>54650</t>
+          <t>55369</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2522</t>
+          <t>2523</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>58416</t>
+          <t>55629</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2521</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>59393</t>
+          <t>59040</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2499</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>59886</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,51 +1928,51 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2499</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>47207</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>41837764</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>好风光会长</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2604</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>48454</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>41837764</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>好风光会长</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2600</t>
         </is>
       </c>
     </row>
@@ -1994,12 +1994,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2021,12 +2021,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2043,17 +2043,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>23240</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3073</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>31687</t>
+          <t>26528</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>25479797</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>"Mohamed Alnaqbi"</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2918</t>
+          <t>3073</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>61024</t>
+          <t>33908</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2495</t>
+          <t>2917</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>34792</t>
+          <t>62047</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2860</t>
+          <t>2493</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>47675</t>
+          <t>35903</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2597</t>
+          <t>2873</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>54468</t>
+          <t>48684</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2523</t>
+          <t>2597</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>55091</t>
+          <t>53718</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2519</t>
+          <t>2537</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>61497</t>
+          <t>56054</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2493</t>
+          <t>2518</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>84798</t>
+          <t>62641</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>2490</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>85599</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1500</t>
         </is>
       </c>
     </row>
@@ -2318,12 +2318,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2345,12 +2345,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2372,12 +2372,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2426,12 +2426,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2480,12 +2480,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2507,12 +2507,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2561,12 +2561,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2588,12 +2588,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2615,12 +2615,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2637,44 +2637,44 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>53882</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2528</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>40085</t>
+          <t>52571</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2684,24 +2684,24 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2760</t>
+          <t>2549</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>41349</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2711,24 +2711,24 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2758</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>62442</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2490</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>62951</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2489</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>85393</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>59106471</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>anime</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>86155</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>59106471</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>anime</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1499</t>
         </is>
       </c>
     </row>
@@ -2831,12 +2831,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2858,12 +2858,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2885,12 +2885,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2912,12 +2912,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2939,12 +2939,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2966,12 +2966,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3020,12 +3020,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3047,12 +3047,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3074,12 +3074,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>59112086</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>sigma</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3101,17 +3101,17 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>59112086</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>sigma</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -3128,12 +3128,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3155,12 +3155,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3182,12 +3182,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3209,12 +3209,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3263,12 +3263,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3290,12 +3290,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3317,20 +3317,47 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
+          <t>9913517</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>"Kenny Chan"</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
           <t>10636651</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>"Ismail Aflou"</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="D111" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/88.xlsx
+++ b/Season_Trophies/88.xlsx
@@ -423,17 +423,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>33042</t>
+          <t>33190</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2937</t>
+          <t>3147</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>38026</t>
+          <t>37515</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,14 +470,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2827</t>
+          <t>3006</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>55809</t>
+          <t>58987</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -504,7 +504,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>80094</t>
+          <t>83879</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1595</t>
+          <t>1588</t>
         </is>
       </c>
     </row>
@@ -639,7 +639,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>17222</t>
+          <t>21422</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3262</t>
+          <t>3471</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1588</t>
+          <t>4599</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3797</t>
+          <t>4020</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5511</t>
+          <t>6823</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3589</t>
+          <t>3975</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7408</t>
+          <t>8369</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3522</t>
+          <t>3907</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>9027</t>
+          <t>8480</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3473</t>
+          <t>3902</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13883</t>
+          <t>13771</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,14 +794,14 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3345</t>
+          <t>3699</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>25896</t>
+          <t>24477</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -821,14 +821,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3086</t>
+          <t>3394</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>42579</t>
+          <t>47090</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -848,14 +848,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2729</t>
+          <t>2714</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>53558</t>
+          <t>55686</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2539</t>
+          <t>2553</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7318</t>
+          <t>8890</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,14 +902,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3525</t>
+          <t>3885</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6725</t>
+          <t>9723</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3544</t>
+          <t>3851</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>9064</t>
+          <t>10077</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3472</t>
+          <t>3836</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>11189</t>
+          <t>10225</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3416</t>
+          <t>3830</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>11970</t>
+          <t>11489</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,14 +1010,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3395</t>
+          <t>3783</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20020</t>
+          <t>20695</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1037,14 +1037,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3201</t>
+          <t>3490</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20337</t>
+          <t>23683</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3195</t>
+          <t>3413</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>24745</t>
+          <t>24342</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3108</t>
+          <t>3397</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>28513</t>
+          <t>20780</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3030</t>
+          <t>3488</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>31104</t>
+          <t>30417</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,14 +1145,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2978</t>
+          <t>3227</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>36488</t>
+          <t>33036</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1172,14 +1172,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2860</t>
+          <t>3151</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>41619</t>
+          <t>37216</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2752</t>
+          <t>3016</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>46941</t>
+          <t>39127</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1226,14 +1226,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2626</t>
+          <t>2953</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8198</t>
+          <t>11119</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1253,14 +1253,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3498</t>
+          <t>3796</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>10729</t>
+          <t>11686</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3428</t>
+          <t>3775</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>13693</t>
+          <t>11939</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>49043337</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>FanXiFang1976</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3350</t>
+          <t>3765</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>14407</t>
+          <t>13227</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3332</t>
+          <t>3719</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>14743</t>
+          <t>13768</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3323</t>
+          <t>3699</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>15119</t>
+          <t>13776</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>49043337</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>FanXiFang1976</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3314</t>
+          <t>3699</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>18355</t>
+          <t>22076</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3236</t>
+          <t>3455</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>24634</t>
+          <t>22774</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Globalking1001</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3110</t>
+          <t>3436</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>25039</t>
+          <t>23105</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3102</t>
+          <t>3428</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>26455</t>
+          <t>24564</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3074</t>
+          <t>3391</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>28562</t>
+          <t>25077</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>Globalking1001</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3029</t>
+          <t>3378</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>30267</t>
+          <t>27648</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2996</t>
+          <t>3307</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>30280</t>
+          <t>30819</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2995</t>
+          <t>3216</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>31164</t>
+          <t>32544</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2977</t>
+          <t>3166</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>33198</t>
+          <t>32920</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2933</t>
+          <t>3154</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>36268</t>
+          <t>33325</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2865</t>
+          <t>3143</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>40255</t>
+          <t>41181</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>59020292</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Player-59020292</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2783</t>
+          <t>2885</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>41368</t>
+          <t>41686</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2758</t>
+          <t>2870</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>41426</t>
+          <t>41845</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>59020292</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>Sharnoth</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2756</t>
+          <t>2864</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>41676</t>
+          <t>43934</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,14 +1766,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2804</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>44245</t>
+          <t>43927</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1793,14 +1793,14 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2687</t>
+          <t>2804</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>53619</t>
+          <t>52985</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2538</t>
+          <t>2590</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>55369</t>
+          <t>56722</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2523</t>
+          <t>2541</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>55629</t>
+          <t>58565</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,14 +1874,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2521</t>
+          <t>2523</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>59040</t>
+          <t>61726</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>59886</t>
+          <t>62411</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1962,7 +1962,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>48454</t>
+          <t>51199</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2600</t>
+          <t>2619</t>
         </is>
       </c>
     </row>
@@ -2070,7 +2070,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>26528</t>
+          <t>25162</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2090,14 +2090,14 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3073</t>
+          <t>3376</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>33908</t>
+          <t>38889</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2117,14 +2117,14 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2917</t>
+          <t>2961</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>62047</t>
+          <t>64286</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2144,14 +2144,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2493</t>
+          <t>2491</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>35903</t>
+          <t>41555</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2171,14 +2171,14 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2873</t>
+          <t>2874</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>48684</t>
+          <t>52591</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2205,7 +2205,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>53718</t>
+          <t>55477</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2225,14 +2225,14 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>2555</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>56054</t>
+          <t>57003</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2252,14 +2252,14 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2518</t>
+          <t>2538</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>62641</t>
+          <t>65339</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2279,14 +2279,14 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2490</t>
+          <t>2483</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>85599</t>
+          <t>90742</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2306,7 +2306,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1500</t>
+          <t>1499</t>
         </is>
       </c>
     </row>
@@ -2664,7 +2664,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>52571</t>
+          <t>52983</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2684,14 +2684,14 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2549</t>
+          <t>2590</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>41349</t>
+          <t>37873</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2711,7 +2711,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2758</t>
+          <t>2995</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>62951</t>
+          <t>61419</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2489</t>
+          <t>2501</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>86155</t>
+          <t>90415</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">

--- a/Season_Trophies/88.xlsx
+++ b/Season_Trophies/88.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,17 +423,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>33190</t>
+          <t>2756</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>46422609</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>㊥林天大大神</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3147</t>
+          <t>4455</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>37515</t>
+          <t>9044</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>57531381</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>㊥蝦雞霸丸</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3006</t>
+          <t>4142</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>58987</t>
+          <t>28059</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2519</t>
+          <t>3544</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>83879</t>
+          <t>59504</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>44437839</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>strangetamer828</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1588</t>
+          <t>2535</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>69972</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>56100131</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>♪iran†★</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2223</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>86518</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>59100545</t>
+          <t>44437839</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"black dragon"</t>
+          <t>strangetamer828</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1588</t>
         </is>
       </c>
     </row>
@@ -590,12 +590,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>59093405</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>永恒不朽6</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -617,12 +617,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>59095922</t>
+          <t>59100545</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>xxxx7</t>
+          <t>"black dragon"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -639,71 +639,71 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>21422</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>59093405</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"Zephyr zgx"</t>
+          <t>永恒不朽6</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3471</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4599</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>59095922</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>xxxx7</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4020</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6823</t>
+          <t>19785</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>"Zephyr zgx"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3975</t>
+          <t>3815</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8369</t>
+          <t>5470</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3907</t>
+          <t>4303</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8480</t>
+          <t>7575</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,14 +767,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3902</t>
+          <t>4205</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>13771</t>
+          <t>9891</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3699</t>
+          <t>4105</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>24477</t>
+          <t>10125</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3394</t>
+          <t>4096</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>47090</t>
+          <t>13712</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2714</t>
+          <t>3993</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>55686</t>
+          <t>21615</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2553</t>
+          <t>3755</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>8890</t>
+          <t>49242</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3885</t>
+          <t>2725</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>9723</t>
+          <t>56764</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3851</t>
+          <t>2569</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>10077</t>
+          <t>10965</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>3836</t>
+          <t>4064</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>10225</t>
+          <t>12202</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3830</t>
+          <t>4019</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>11489</t>
+          <t>13354</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3783</t>
+          <t>3995</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20695</t>
+          <t>14298</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3490</t>
+          <t>3989</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>23683</t>
+          <t>14952</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3413</t>
+          <t>3980</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>24342</t>
+          <t>20736</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3397</t>
+          <t>3782</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20780</t>
+          <t>23770</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3488</t>
+          <t>3686</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>30417</t>
+          <t>23883</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3227</t>
+          <t>3682</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>33036</t>
+          <t>24555</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3151</t>
+          <t>3660</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>37216</t>
+          <t>31509</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3016</t>
+          <t>3425</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>39127</t>
+          <t>31835</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2953</t>
+          <t>3414</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>11119</t>
+          <t>35213</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3796</t>
+          <t>3288</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>11686</t>
+          <t>42626</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3775</t>
+          <t>2951</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>11939</t>
+          <t>10833</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3765</t>
+          <t>4068</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>13227</t>
+          <t>11190</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3719</t>
+          <t>4056</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>13768</t>
+          <t>11857</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3699</t>
+          <t>4031</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>13776</t>
+          <t>14441</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>49043337</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>FanXiFang1976</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3699</t>
+          <t>3987</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>22076</t>
+          <t>15702</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3455</t>
+          <t>3958</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>22774</t>
+          <t>18163</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3436</t>
+          <t>3869</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>23105</t>
+          <t>16225</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>49043337</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>FanXiFang1976</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3428</t>
+          <t>3939</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>24564</t>
+          <t>21239</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3391</t>
+          <t>3767</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>25077</t>
+          <t>22787</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Globalking1001</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3378</t>
+          <t>3718</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>27648</t>
+          <t>23701</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>Globalking1001</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3307</t>
+          <t>3688</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>30819</t>
+          <t>27081</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3216</t>
+          <t>3577</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>32544</t>
+          <t>27338</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3166</t>
+          <t>3569</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>32920</t>
+          <t>27723</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3154</t>
+          <t>3556</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>33325</t>
+          <t>28344</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3143</t>
+          <t>3536</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>41181</t>
+          <t>32490</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2885</t>
+          <t>3390</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>41686</t>
+          <t>33949</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2870</t>
+          <t>3335</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>41845</t>
+          <t>34896</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>59020292</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Sharnoth</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2864</t>
+          <t>3299</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>43934</t>
+          <t>42208</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2804</t>
+          <t>2970</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>43927</t>
+          <t>42558</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>59020292</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Sharnoth</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2804</t>
+          <t>2954</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>52985</t>
+          <t>43372</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2590</t>
+          <t>2920</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>56722</t>
+          <t>43567</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2541</t>
+          <t>2912</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>58565</t>
+          <t>46716</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2523</t>
+          <t>2804</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>61726</t>
+          <t>55323</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2590</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>62411</t>
+          <t>59465</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2499</t>
+          <t>2536</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>60764</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,61 +1955,61 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2523</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>51199</t>
+          <t>63358</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>41837764</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>好风光会长</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2619</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>63889</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2499</t>
         </is>
       </c>
     </row>
@@ -2021,17 +2021,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2043,17 +2043,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>50484</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>41837764</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>好风光会长</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2691</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>25162</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>25479797</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"Mohamed Alnaqbi"</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>3376</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>38889</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2961</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>64286</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2491</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>41555</t>
+          <t>41454</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2874</t>
+          <t>3001</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>52591</t>
+          <t>65468</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2597</t>
+          <t>2491</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>55477</t>
+          <t>42889</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2555</t>
+          <t>2942</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>57003</t>
+          <t>42921</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2538</t>
+          <t>2940</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>65339</t>
+          <t>55505</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2483</t>
+          <t>2587</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>90742</t>
+          <t>59458</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>2536</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>65759</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2488</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>93853</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1499</t>
         </is>
       </c>
     </row>
@@ -2372,12 +2372,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2426,12 +2426,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2480,12 +2480,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2507,12 +2507,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2561,12 +2561,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2588,12 +2588,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2615,12 +2615,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2642,12 +2642,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2664,71 +2664,71 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>52983</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2590</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>37873</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2995</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>55841</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2582</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>61419</t>
+          <t>41920</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,7 +2765,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2501</t>
+          <t>2983</t>
         </is>
       </c>
     </row>
@@ -2777,12 +2777,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2799,17 +2799,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>90415</t>
+          <t>58815</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>59106471</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>anime</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>2543</t>
         </is>
       </c>
     </row>
@@ -2831,12 +2831,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2853,17 +2853,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>93554</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>59106471</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>anime</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1499</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>135942</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
@@ -2912,12 +2912,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2939,12 +2939,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2966,12 +2966,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3020,12 +3020,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3047,12 +3047,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3074,12 +3074,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3101,12 +3101,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>59112086</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>sigma</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3128,17 +3128,17 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -3155,17 +3155,17 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>59112086</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>sigma</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3182,12 +3182,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3209,12 +3209,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3236,12 +3236,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3263,12 +3263,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3290,12 +3290,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3317,12 +3317,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3344,20 +3344,74 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
+          <t>6010122</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>"Edward Peng"</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>9913517</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>"Kenny Chan"</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
           <t>10636651</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>"Ismail Aflou"</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/88.xlsx
+++ b/Season_Trophies/88.xlsx
@@ -423,17 +423,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2756</t>
+          <t>16729</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>46422609</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>㊥林天大大神</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4455</t>
+          <t>4293</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>9044</t>
+          <t>62408</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>57531381</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>㊥蝦雞霸丸</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4142</t>
+          <t>2535</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>28059</t>
+          <t>66659</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>56100131</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>♪iran†★</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3544</t>
+          <t>2496</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>59504</t>
+          <t>90864</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>44437839</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>strangetamer828</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2535</t>
+          <t>1587</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>69972</t>
+          <t>103905</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>56100131</t>
+          <t>59166269</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>♪iran†★</t>
+          <t>Player-59166269</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2223</t>
+          <t>1401</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>86518</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>44437839</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>strangetamer828</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1588</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -590,12 +590,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>59100545</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>"black dragon"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -617,12 +617,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>59100545</t>
+          <t>59093405</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>"black dragon"</t>
+          <t>永恒不朽6</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -644,12 +644,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>59093405</t>
+          <t>59095922</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>永恒不朽6</t>
+          <t>xxxx7</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -666,44 +666,44 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>15651</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>59095922</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>xxxx7</t>
+          <t>"Zephyr zgx"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>总馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4330</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>19785</t>
+          <t>6461</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"Zephyr zgx"</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,14 +713,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3815</t>
+          <t>4769</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5470</t>
+          <t>7870</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -740,14 +740,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4303</t>
+          <t>4687</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>7575</t>
+          <t>9954</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -767,14 +767,14 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4205</t>
+          <t>4579</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>9891</t>
+          <t>12577</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4105</t>
+          <t>4455</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>10125</t>
+          <t>13860</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,14 +821,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4096</t>
+          <t>4397</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>13712</t>
+          <t>18633</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3993</t>
+          <t>4231</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>21615</t>
+          <t>53362</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3755</t>
+          <t>2709</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>49242</t>
+          <t>60126</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2725</t>
+          <t>2567</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>56764</t>
+          <t>13926</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2569</t>
+          <t>4394</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>10965</t>
+          <t>15636</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4064</t>
+          <t>4330</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>12202</t>
+          <t>15852</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4019</t>
+          <t>4323</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>13354</t>
+          <t>17565</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3995</t>
+          <t>4266</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>14298</t>
+          <t>22420</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3989</t>
+          <t>4118</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>14952</t>
+          <t>24050</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>3980</t>
+          <t>4070</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20736</t>
+          <t>26088</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>3782</t>
+          <t>4011</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>23770</t>
+          <t>27692</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3686</t>
+          <t>3992</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>23883</t>
+          <t>28753</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3682</t>
+          <t>3982</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>24555</t>
+          <t>30227</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3660</t>
+          <t>3927</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>31509</t>
+          <t>30318</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3425</t>
+          <t>3923</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>31835</t>
+          <t>30734</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3414</t>
+          <t>3904</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>35213</t>
+          <t>44843</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3288</t>
+          <t>3047</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>42626</t>
+          <t>7162</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2951</t>
+          <t>4725</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>10833</t>
+          <t>11048</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4068</t>
+          <t>4526</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>11190</t>
+          <t>12762</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>49043337</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>FanXiFang1976</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4056</t>
+          <t>4447</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>11857</t>
+          <t>13481</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4031</t>
+          <t>4413</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>14441</t>
+          <t>16377</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3987</t>
+          <t>4305</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>15702</t>
+          <t>17660</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3958</t>
+          <t>4263</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>18163</t>
+          <t>17886</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3869</t>
+          <t>4256</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>16225</t>
+          <t>18017</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>49043337</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>FanXiFang1976</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3939</t>
+          <t>4252</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>21239</t>
+          <t>26306</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3767</t>
+          <t>4006</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>22787</t>
+          <t>26516</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,14 +1523,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>3718</t>
+          <t>4001</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>23701</t>
+          <t>28188</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Globalking1001</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,14 +1550,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3688</t>
+          <t>3988</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>27081</t>
+          <t>28773</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1577,14 +1577,14 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3577</t>
+          <t>3982</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>27338</t>
+          <t>30619</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3569</t>
+          <t>3909</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>27723</t>
+          <t>32185</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3556</t>
+          <t>3831</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>28344</t>
+          <t>32197</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3536</t>
+          <t>3830</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>32490</t>
+          <t>36124</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3390</t>
+          <t>3616</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>33949</t>
+          <t>37492</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3335</t>
+          <t>3534</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>34896</t>
+          <t>39850</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>59020292</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>Sharnoth</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,14 +1739,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3299</t>
+          <t>3378</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>42208</t>
+          <t>42712</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2970</t>
+          <t>3181</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>42558</t>
+          <t>44584</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>59020292</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Sharnoth</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2954</t>
+          <t>3062</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>43372</t>
+          <t>46216</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2920</t>
+          <t>2978</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>43567</t>
+          <t>49839</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2912</t>
+          <t>2822</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>46716</t>
+          <t>54258</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,14 +1874,14 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2804</t>
+          <t>2686</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>55323</t>
+          <t>56634</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2590</t>
+          <t>2629</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>59465</t>
+          <t>59913</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2536</t>
+          <t>2570</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>60764</t>
+          <t>61540</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,14 +1955,14 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2523</t>
+          <t>2547</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>63358</t>
+          <t>65748</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1989,17 +1989,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>63889</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,51 +2009,51 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2499</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>52882</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>41837764</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>好风光会长</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2722</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>50484</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>41837764</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>好风光会长</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,7 +2063,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2691</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2075,12 +2075,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2102,12 +2102,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2124,17 +2124,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>40199</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3356</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>41454</t>
+          <t>67800</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3001</t>
+          <t>2487</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>65468</t>
+          <t>39980</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2491</t>
+          <t>3371</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>42889</t>
+          <t>45821</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2942</t>
+          <t>2997</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>42921</t>
+          <t>57313</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,14 +2252,14 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2940</t>
+          <t>2615</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>55505</t>
+          <t>57955</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2587</t>
+          <t>2603</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>59458</t>
+          <t>68269</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2536</t>
+          <t>2480</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>65759</t>
+          <t>83919</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,14 +2333,14 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2488</t>
+          <t>1991</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>93853</t>
+          <t>99446</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>1497</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>103034</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1424</t>
         </is>
       </c>
     </row>
@@ -2399,12 +2399,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2426,12 +2426,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2480,12 +2480,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2507,12 +2507,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2615,12 +2615,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2642,12 +2642,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2669,12 +2669,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2691,44 +2691,44 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>57262</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2616</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>55841</t>
+          <t>37913</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2738,24 +2738,24 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2582</t>
+          <t>3506</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>41920</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2765,24 +2765,24 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2983</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>59310</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>55210350</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>一个过客而已</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2579</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>58815</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2543</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>98463</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>59106471</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>anime</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1499</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>93554</t>
+          <t>152655</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>59106471</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>anime</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>135942</t>
+          <t>166600</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>15695258</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>Player-15695258</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">

--- a/Season_Trophies/88.xlsx
+++ b/Season_Trophies/88.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>67033</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2499</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>16729</t>
+          <t>13400</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4293</t>
+          <t>4608</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>62408</t>
+          <t>58278</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,14 +470,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2535</t>
+          <t>2625</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>66659</t>
+          <t>60443</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2496</t>
+          <t>2583</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>90864</t>
+          <t>62515</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>44437839</t>
+          <t>42558469</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>strangetamer828</t>
+          <t>palyer25524836</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1587</t>
+          <t>2550</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>103905</t>
+          <t>62850</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>59166269</t>
+          <t>43834954</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Player-59166269</t>
+          <t>wuhugouyun</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>2545</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>63544</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2535</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>92975</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>59100545</t>
+          <t>44437839</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>"black dragon"</t>
+          <t>strangetamer828</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1587</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>103897</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>59093405</t>
+          <t>59166269</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>永恒不朽6</t>
+          <t>Player-59166269</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1468</t>
         </is>
       </c>
     </row>
@@ -644,12 +644,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>59095922</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>xxxx7</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -666,98 +666,98 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>15651</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>59100545</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"Zephyr zgx"</t>
+          <t>"black dragon"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4330</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6461</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>59093405</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>永恒不朽6</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4769</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7870</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>59095922</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>xxxx7</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4687</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>9954</t>
+          <t>20513</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>"Zephyr zgx"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4579</t>
+          <t>4330</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>12577</t>
+          <t>9039</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4455</t>
+          <t>4842</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>13860</t>
+          <t>9869</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4397</t>
+          <t>4798</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>18633</t>
+          <t>10592</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4231</t>
+          <t>4760</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>53362</t>
+          <t>12040</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2709</t>
+          <t>4683</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>60126</t>
+          <t>16929</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2567</t>
+          <t>4462</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>13926</t>
+          <t>19578</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4394</t>
+          <t>4365</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>15636</t>
+          <t>51141</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4330</t>
+          <t>2830</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>15852</t>
+          <t>54465</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4323</t>
+          <t>2721</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>17565</t>
+          <t>14814</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4266</t>
+          <t>4544</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>22420</t>
+          <t>15916</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4118</t>
+          <t>4501</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>24050</t>
+          <t>16039</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4070</t>
+          <t>4496</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>26088</t>
+          <t>18861</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4011</t>
+          <t>4390</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>27692</t>
+          <t>19394</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3992</t>
+          <t>4371</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>28753</t>
+          <t>22100</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3982</t>
+          <t>4273</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>30227</t>
+          <t>28253</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>3927</t>
+          <t>4083</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30318</t>
+          <t>30435</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3923</t>
+          <t>4014</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>30734</t>
+          <t>31057</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3904</t>
+          <t>3997</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>44843</t>
+          <t>30523</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3047</t>
+          <t>4011</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>7162</t>
+          <t>32351</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4725</t>
+          <t>3988</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>11048</t>
+          <t>34390</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4526</t>
+          <t>3907</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>12762</t>
+          <t>37636</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>49043337</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>FanXiFang1976</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4447</t>
+          <t>3690</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>13481</t>
+          <t>8085</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4413</t>
+          <t>4897</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>16377</t>
+          <t>11346</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4305</t>
+          <t>4720</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>17660</t>
+          <t>11783</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4263</t>
+          <t>4697</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>17886</t>
+          <t>12604</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4256</t>
+          <t>4652</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>18017</t>
+          <t>13216</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>49043337</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>FanXiFang1976</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4252</t>
+          <t>4618</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>26306</t>
+          <t>15970</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4006</t>
+          <t>4499</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>26516</t>
+          <t>16897</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4001</t>
+          <t>4463</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>28188</t>
+          <t>20956</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,14 +1550,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3988</t>
+          <t>4314</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>28773</t>
+          <t>25292</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>3982</t>
+          <t>4172</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>30619</t>
+          <t>26004</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>3909</t>
+          <t>4151</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>32185</t>
+          <t>28904</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>3831</t>
+          <t>4063</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>32197</t>
+          <t>30195</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>3830</t>
+          <t>4021</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>36124</t>
+          <t>30785</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>3616</t>
+          <t>4003</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>37492</t>
+          <t>32872</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3534</t>
+          <t>3981</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>39850</t>
+          <t>34433</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>59020292</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Sharnoth</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3378</t>
+          <t>3903</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>42712</t>
+          <t>35652</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3181</t>
+          <t>3828</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>44584</t>
+          <t>39004</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3062</t>
+          <t>3588</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>46216</t>
+          <t>40604</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>59020292</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Sharnoth</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2978</t>
+          <t>3466</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>49839</t>
+          <t>43509</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2822</t>
+          <t>3246</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>54258</t>
+          <t>44423</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2686</t>
+          <t>3179</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>56634</t>
+          <t>46561</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2629</t>
+          <t>3040</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>59913</t>
+          <t>51354</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2570</t>
+          <t>2822</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>61540</t>
+          <t>55749</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2547</t>
+          <t>2685</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>65748</t>
+          <t>57571</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2640</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>60867</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,61 +2009,61 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2576</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>52882</t>
+          <t>61232</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>41837764</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>好风光会长</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2722</t>
+          <t>2570</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>66713</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
@@ -2075,17 +2075,17 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2097,17 +2097,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>54293</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>41837764</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>好风光会长</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2726</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>40199</t>
+          <t>67727</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3356</t>
+          <t>2495</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>67800</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2487</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>39980</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3371</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>45821</t>
+          <t>41452</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2997</t>
+          <t>3403</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>57313</t>
+          <t>68682</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2486</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>57955</t>
+          <t>41882</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>3369</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>68269</t>
+          <t>47542</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2480</t>
+          <t>2989</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>83919</t>
+          <t>50622</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>1991</t>
+          <t>2851</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>99446</t>
+          <t>54399</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>2723</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>103034</t>
+          <t>69461</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>1424</t>
+          <t>2473</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>85556</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1986</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>101792</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1497</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>104388</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1454</t>
         </is>
       </c>
     </row>
@@ -2480,12 +2480,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2507,12 +2507,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2561,12 +2561,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2588,12 +2588,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2615,12 +2615,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2642,12 +2642,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2669,12 +2669,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2691,54 +2691,54 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>57262</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2616</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>37913</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>3506</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2750,17 +2750,17 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -2772,17 +2772,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>59310</t>
+          <t>40358</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>55210350</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>一个过客而已</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2579</t>
+          <t>3485</t>
         </is>
       </c>
     </row>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2826,17 +2826,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>98463</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>59106471</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>anime</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,24 +2846,24 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1499</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>152655</t>
+          <t>101313</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>59106471</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>anime</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1498</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>166600</t>
+          <t>162004</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>15695258</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Player-15695258</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2907,17 +2907,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>178298</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>15695258</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>Player-15695258</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
@@ -2939,12 +2939,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2966,12 +2966,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3020,12 +3020,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3047,12 +3047,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3074,12 +3074,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3101,12 +3101,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3128,12 +3128,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3155,12 +3155,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>59112086</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>sigma</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3182,236 +3182,20 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>41848598</t>
+          <t>59112086</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>国家一级保护沙雕</t>
+          <t>sigma</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>12648101</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>"player 198827"</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>9195340</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Namllllllik</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>15755724</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>"Last Good"</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>8850180</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>30624300</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>28624723</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>"Woody Shade"</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>6010122</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>"Edward Peng"</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>9913517</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>"Kenny Chan"</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>10636651</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>"Ismail Aflou"</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/88.xlsx
+++ b/Season_Trophies/88.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>67033</t>
+          <t>64777</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2499</t>
+          <t>2533</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>13400</t>
+          <t>12992</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4608</t>
+          <t>4823</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>58278</t>
+          <t>56736</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>56100131</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>♪iran†★</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2625</t>
+          <t>2693</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>60443</t>
+          <t>59799</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>56100131</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>♪iran†★</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2583</t>
+          <t>2619</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>62515</t>
+          <t>62299</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,14 +524,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2550</t>
+          <t>2571</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>62850</t>
+          <t>64505</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2545</t>
+          <t>2537</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>63544</t>
+          <t>64603</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>92975</t>
+          <t>94896</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -612,7 +612,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>103897</t>
+          <t>106074</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -639,17 +639,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>108072</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>59206405</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>pro-59206405</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1421</t>
         </is>
       </c>
     </row>
@@ -671,12 +671,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>59100545</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"black dragon"</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>59093405</t>
+          <t>59100545</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>永恒不朽6</t>
+          <t>"black dragon"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -725,12 +725,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>59095922</t>
+          <t>59093405</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>xxxx7</t>
+          <t>永恒不朽6</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -747,44 +747,44 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>20513</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>59095922</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"Zephyr zgx"</t>
+          <t>xxxx7</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4330</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>9039</t>
+          <t>23605</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>"Zephyr zgx"</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4842</t>
+          <t>4364</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>9869</t>
+          <t>8508</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>47131129</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4798</t>
+          <t>5084</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10592</t>
+          <t>10552</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,14 +848,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4760</t>
+          <t>4965</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>12040</t>
+          <t>11304</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4683</t>
+          <t>4919</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>16929</t>
+          <t>13879</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4462</t>
+          <t>4773</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>19578</t>
+          <t>18741</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4365</t>
+          <t>4553</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>51141</t>
+          <t>20307</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2830</t>
+          <t>4493</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>54465</t>
+          <t>52500</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2721</t>
+          <t>2830</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>14814</t>
+          <t>55342</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4544</t>
+          <t>2734</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>15916</t>
+          <t>15412</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4501</t>
+          <t>4697</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>16039</t>
+          <t>17171</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4496</t>
+          <t>4620</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>18861</t>
+          <t>17528</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4390</t>
+          <t>4605</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>19394</t>
+          <t>18454</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4371</t>
+          <t>4564</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>22100</t>
+          <t>21663</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4273</t>
+          <t>4437</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>28253</t>
+          <t>22735</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4083</t>
+          <t>4396</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30435</t>
+          <t>28657</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4014</t>
+          <t>4188</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>31057</t>
+          <t>29823</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>3997</t>
+          <t>4150</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30523</t>
+          <t>30062</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4011</t>
+          <t>4143</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>32351</t>
+          <t>31109</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,14 +1280,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>3988</t>
+          <t>4108</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>34390</t>
+          <t>34915</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3907</t>
+          <t>3994</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>37636</t>
+          <t>35329</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3690</t>
+          <t>3990</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>8085</t>
+          <t>39470</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4897</t>
+          <t>3708</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>11346</t>
+          <t>8505</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,14 +1388,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4720</t>
+          <t>5084</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>11783</t>
+          <t>11885</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1415,14 +1415,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4697</t>
+          <t>4888</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>12604</t>
+          <t>11990</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1442,14 +1442,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4652</t>
+          <t>4881</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>13216</t>
+          <t>11408</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4618</t>
+          <t>4914</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>15970</t>
+          <t>13445</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4499</t>
+          <t>4797</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>16897</t>
+          <t>16460</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4463</t>
+          <t>4651</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20956</t>
+          <t>17835</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4314</t>
+          <t>4591</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>25292</t>
+          <t>19084</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,14 +1577,14 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4172</t>
+          <t>4538</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>26004</t>
+          <t>24752</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4151</t>
+          <t>4321</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>28904</t>
+          <t>26797</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4063</t>
+          <t>4250</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>30195</t>
+          <t>27156</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4021</t>
+          <t>4239</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>30785</t>
+          <t>27666</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4003</t>
+          <t>4222</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>32872</t>
+          <t>30458</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>3981</t>
+          <t>4129</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>34433</t>
+          <t>33267</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3903</t>
+          <t>4033</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>35652</t>
+          <t>35621</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3828</t>
+          <t>3987</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>39004</t>
+          <t>35645</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3588</t>
+          <t>3987</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>40604</t>
+          <t>37789</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>59020292</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Sharnoth</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3466</t>
+          <t>3857</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>43509</t>
+          <t>41990</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>59020292</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>Sharnoth</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3246</t>
+          <t>3490</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>44423</t>
+          <t>43422</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3179</t>
+          <t>3370</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>46561</t>
+          <t>44068</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,14 +1901,14 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3040</t>
+          <t>3319</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>51354</t>
+          <t>45878</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2822</t>
+          <t>3180</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>55749</t>
+          <t>47257</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2685</t>
+          <t>3083</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>57571</t>
+          <t>57037</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2640</t>
+          <t>2685</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>60867</t>
+          <t>57594</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2576</t>
+          <t>2668</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>61232</t>
+          <t>62179</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>31401481</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>Player-31401481</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2570</t>
+          <t>2573</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>66713</t>
+          <t>62425</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2569</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>67577</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>4493731</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>Player-1527362</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,51 +2090,51 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2500</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>54293</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>41837764</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>好风光会长</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2726</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>67727</t>
+          <t>54713</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>41837764</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>好风光会长</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2495</t>
+          <t>2753</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>63680</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2549</t>
         </is>
       </c>
     </row>
@@ -2183,12 +2183,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2205,17 +2205,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>41452</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>3403</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>68682</t>
+          <t>42564</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2486</t>
+          <t>3438</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>41882</t>
+          <t>69740</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>28855852</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>tiger</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3369</t>
+          <t>2483</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>47542</t>
+          <t>40727</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,14 +2306,14 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2989</t>
+          <t>3601</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>50622</t>
+          <t>45399</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2851</t>
+          <t>3217</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>54399</t>
+          <t>48745</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2723</t>
+          <t>2998</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>69461</t>
+          <t>54283</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2473</t>
+          <t>2768</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>85556</t>
+          <t>70363</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>2470</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>101792</t>
+          <t>86970</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>1979</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>104388</t>
+          <t>104134</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1454</t>
+          <t>1496</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>106800</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1449</t>
         </is>
       </c>
     </row>
@@ -2507,12 +2507,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2534,12 +2534,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2561,12 +2561,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2588,12 +2588,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2615,12 +2615,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2642,12 +2642,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2669,12 +2669,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2696,12 +2696,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2723,12 +2723,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2750,12 +2750,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2772,44 +2772,44 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>40358</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3485</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>42184</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3471</t>
         </is>
       </c>
     </row>
@@ -2831,12 +2831,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2853,17 +2853,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>101313</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>59106471</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>anime</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1498</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>162004</t>
+          <t>103464</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>59106471</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>anime</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>1498</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>178298</t>
+          <t>170425</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>15695258</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Player-15695258</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2934,17 +2934,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>188628</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>15695258</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>Player-15695258</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,7 +2954,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
@@ -2966,12 +2966,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3020,12 +3020,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3047,12 +3047,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3074,12 +3074,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3101,12 +3101,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3128,12 +3128,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3155,12 +3155,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3182,20 +3182,47 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
+          <t>59082827</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Player-59082827</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>三馆</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>999999</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
           <t>59112086</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+      <c r="C106" t="inlineStr">
         <is>
           <t>sigma</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D106" t="inlineStr">
         <is>
           <t>三馆</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/88.xlsx
+++ b/Season_Trophies/88.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>64777</t>
+          <t>65954</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,24 +416,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2533</t>
+          <t>2530</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>12992</t>
+          <t>56182</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>56100131</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>♪iran†★</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4823</t>
+          <t>2742</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>56736</t>
+          <t>59506</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>56100131</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>♪iran†★</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2693</t>
+          <t>2648</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>59799</t>
+          <t>60399</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>42558469</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>palyer25524836</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2619</t>
+          <t>2628</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>62299</t>
+          <t>63832</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>42558469</t>
+          <t>43834954</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>palyer25524836</t>
+          <t>wuhugouyun</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2571</t>
+          <t>2561</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>64505</t>
+          <t>64456</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>43834954</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>wuhugouyun</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2537</t>
+          <t>2551</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>64603</t>
+          <t>65654</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>27113069</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>㊥DumbSmoky</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,14 +578,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2535</t>
+          <t>2534</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>94896</t>
+          <t>96568</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -612,7 +612,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>106074</t>
+          <t>107867</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -639,17 +639,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>108072</t>
+          <t>109280</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>59206405</t>
+          <t>59231345</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>pro-59206405</t>
+          <t>Player-59231345</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1421</t>
+          <t>1435</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>109513</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>59206405</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>pro-59206405</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1430</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>109926</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>59100545</t>
+          <t>59222805</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>"black dragon"</t>
+          <t>CAMILO</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1423</t>
         </is>
       </c>
     </row>
@@ -725,12 +725,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>59093405</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>永恒不朽6</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -752,12 +752,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>59095922</t>
+          <t>59100545</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>xxxx7</t>
+          <t>"black dragon"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -774,71 +774,71 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>23605</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>59093405</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>"Zephyr zgx"</t>
+          <t>永恒不朽6</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4364</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8508</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>47131129</t>
+          <t>59095922</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>xxxx7</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>总馆</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5084</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10552</t>
+          <t>26948</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>"Zephyr zgx"</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4965</t>
+          <t>4364</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>11304</t>
+          <t>10788</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>4919</t>
+          <t>5140</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>13879</t>
+          <t>12345</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>4773</t>
+          <t>5044</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>18741</t>
+          <t>13789</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4553</t>
+          <t>4959</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>20307</t>
+          <t>16612</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4493</t>
+          <t>4805</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>52500</t>
+          <t>19625</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2830</t>
+          <t>4666</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>55342</t>
+          <t>50149</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2734</t>
+          <t>2982</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>15412</t>
+          <t>56650</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4697</t>
+          <t>2728</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>17171</t>
+          <t>16355</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4620</t>
+          <t>4818</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>17528</t>
+          <t>17562</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4605</t>
+          <t>4760</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>18454</t>
+          <t>17519</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4564</t>
+          <t>4762</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>21663</t>
+          <t>19493</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4437</t>
+          <t>4672</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>22735</t>
+          <t>21080</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4396</t>
+          <t>4601</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>28657</t>
+          <t>22455</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4188</t>
+          <t>4544</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>29823</t>
+          <t>27693</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4150</t>
+          <t>4336</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30062</t>
+          <t>27967</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,14 +1253,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4143</t>
+          <t>4326</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>31109</t>
+          <t>31405</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4108</t>
+          <t>4201</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>34915</t>
+          <t>32013</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3994</t>
+          <t>4179</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>35329</t>
+          <t>35012</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3990</t>
+          <t>4071</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>39470</t>
+          <t>36995</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3708</t>
+          <t>3997</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>8505</t>
+          <t>38006</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5084</t>
+          <t>3987</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>11885</t>
+          <t>8436</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,14 +1415,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4888</t>
+          <t>5299</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>11990</t>
+          <t>10698</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4881</t>
+          <t>5147</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>11408</t>
+          <t>12397</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>49043337</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>FanXiFang1976</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4914</t>
+          <t>5041</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>13445</t>
+          <t>12607</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4797</t>
+          <t>5028</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>16460</t>
+          <t>14960</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4651</t>
+          <t>4887</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>17835</t>
+          <t>15188</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>49043337</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>FanXiFang1976</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4591</t>
+          <t>4876</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>19084</t>
+          <t>15896</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4538</t>
+          <t>4841</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>24752</t>
+          <t>17273</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4321</t>
+          <t>4776</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>26797</t>
+          <t>18027</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4250</t>
+          <t>4739</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>27156</t>
+          <t>22180</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4239</t>
+          <t>4556</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>27666</t>
+          <t>28030</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4222</t>
+          <t>4324</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>30458</t>
+          <t>29828</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4129</t>
+          <t>4259</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>33267</t>
+          <t>32344</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4033</t>
+          <t>4167</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>35621</t>
+          <t>33918</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>3987</t>
+          <t>4111</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>35645</t>
+          <t>34012</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,14 +1793,14 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>3987</t>
+          <t>4108</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>37789</t>
+          <t>36782</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3857</t>
+          <t>4002</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>41990</t>
+          <t>37492</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>59020292</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Sharnoth</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3490</t>
+          <t>3993</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>43422</t>
+          <t>38106</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3370</t>
+          <t>3984</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>44068</t>
+          <t>42341</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>59020292</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>Sharnoth</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3319</t>
+          <t>3585</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>45878</t>
+          <t>43281</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3180</t>
+          <t>3498</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>47257</t>
+          <t>44505</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3083</t>
+          <t>3389</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>57037</t>
+          <t>46932</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2685</t>
+          <t>3191</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>57594</t>
+          <t>47079</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2668</t>
+          <t>3180</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>62179</t>
+          <t>58109</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>31401481</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Player-31401481</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2573</t>
+          <t>2685</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>62425</t>
+          <t>58689</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2569</t>
+          <t>2668</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>67577</t>
+          <t>63362</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4493731</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Player-1527362</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2500</t>
+          <t>2569</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>54713</t>
+          <t>55251</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2144,14 +2144,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2753</t>
+          <t>2775</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>63680</t>
+          <t>62284</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2549</t>
+          <t>2589</t>
         </is>
       </c>
     </row>
@@ -2232,7 +2232,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>42564</t>
+          <t>39056</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2252,14 +2252,14 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>3438</t>
+          <t>3913</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>69740</t>
+          <t>70626</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2279,14 +2279,14 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2483</t>
+          <t>2479</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>40727</t>
+          <t>42212</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2306,14 +2306,14 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3601</t>
+          <t>3600</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>45399</t>
+          <t>46301</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2333,14 +2333,14 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3217</t>
+          <t>3240</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>48745</t>
+          <t>49352</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2360,14 +2360,14 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2998</t>
+          <t>3024</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>54283</t>
+          <t>55524</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2387,14 +2387,14 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2768</t>
+          <t>2766</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>70363</t>
+          <t>71178</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2414,14 +2414,14 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2470</t>
+          <t>2466</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>86970</t>
+          <t>88080</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2441,14 +2441,14 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>1974</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>104134</t>
+          <t>105859</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2475,7 +2475,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>106800</t>
+          <t>108763</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1449</t>
+          <t>1446</t>
         </is>
       </c>
     </row>
@@ -2799,7 +2799,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>42184</t>
+          <t>43829</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3471</t>
+          <t>3449</t>
         </is>
       </c>
     </row>
@@ -2880,7 +2880,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>103464</t>
+          <t>105222</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2907,7 +2907,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>170425</t>
+          <t>176560</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2934,7 +2934,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>188628</t>
+          <t>195816</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">

--- a/Season_Trophies/88.xlsx
+++ b/Season_Trophies/88.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>65954</t>
+          <t>67049</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2530</t>
+          <t>2526</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>56182</t>
+          <t>54801</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2742</t>
+          <t>2824</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>59506</t>
+          <t>58935</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -470,14 +470,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2648</t>
+          <t>2689</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>60399</t>
+          <t>61464</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2628</t>
+          <t>2626</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>63832</t>
+          <t>63817</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,14 +524,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2561</t>
+          <t>2577</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>64456</t>
+          <t>65275</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>65654</t>
+          <t>66425</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -585,17 +585,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>96568</t>
+          <t>94592</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>44437839</t>
+          <t>59222805</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>strangetamer828</t>
+          <t>CAMILO</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1587</t>
+          <t>1657</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>107867</t>
+          <t>98041</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>59166269</t>
+          <t>44437839</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Player-59166269</t>
+          <t>strangetamer828</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,14 +632,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1468</t>
+          <t>1587</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>109280</t>
+          <t>102679</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1435</t>
+          <t>1524</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>109513</t>
+          <t>109687</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>59206405</t>
+          <t>59166269</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>pro-59206405</t>
+          <t>Player-59166269</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1430</t>
+          <t>1464</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>109926</t>
+          <t>110686</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>59222805</t>
+          <t>59206405</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CAMILO</t>
+          <t>pro-59206405</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1423</t>
+          <t>1441</t>
         </is>
       </c>
     </row>
@@ -828,7 +828,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>26948</t>
+          <t>29873</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -855,17 +855,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>10788</t>
+          <t>9561</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5140</t>
+          <t>5425</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>10429</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,14 +902,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5044</t>
+          <t>5363</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>13789</t>
+          <t>13129</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -929,14 +929,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4959</t>
+          <t>5176</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>16612</t>
+          <t>17649</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -956,14 +956,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4805</t>
+          <t>4909</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>19625</t>
+          <t>20164</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -983,14 +983,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4666</t>
+          <t>4786</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>50149</t>
+          <t>45472</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1010,14 +1010,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2982</t>
+          <t>3401</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>56650</t>
+          <t>57842</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1037,14 +1037,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2728</t>
+          <t>2721</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>16355</t>
+          <t>16101</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4818</t>
+          <t>4991</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>17562</t>
+          <t>18397</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1091,14 +1091,14 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4760</t>
+          <t>4871</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>17519</t>
+          <t>18457</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4762</t>
+          <t>4868</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>19493</t>
+          <t>20730</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4672</t>
+          <t>4759</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>21080</t>
+          <t>20921</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4601</t>
+          <t>4749</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>22455</t>
+          <t>22902</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4544</t>
+          <t>4657</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>27693</t>
+          <t>28822</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4336</t>
+          <t>4406</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>27967</t>
+          <t>30452</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4326</t>
+          <t>4341</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>31405</t>
+          <t>30684</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,14 +1280,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4201</t>
+          <t>4332</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>32013</t>
+          <t>31315</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4179</t>
+          <t>4307</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>35012</t>
+          <t>33006</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,14 +1334,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4071</t>
+          <t>4238</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>36995</t>
+          <t>36888</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3997</t>
+          <t>4083</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>38006</t>
+          <t>37183</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1388,14 +1388,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3987</t>
+          <t>4071</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>8436</t>
+          <t>7308</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1415,14 +1415,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5299</t>
+          <t>5599</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>10698</t>
+          <t>10607</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5147</t>
+          <t>5350</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>12397</t>
+          <t>11987</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5041</t>
+          <t>5253</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>12607</t>
+          <t>13164</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5028</t>
+          <t>5173</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>14960</t>
+          <t>13159</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>49043337</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>FanXiFang1976</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>4887</t>
+          <t>5173</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>15188</t>
+          <t>13786</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>49043337</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>FanXiFang1976</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4876</t>
+          <t>5129</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>15896</t>
+          <t>15793</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4841</t>
+          <t>5005</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>17273</t>
+          <t>16910</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4776</t>
+          <t>4948</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>18027</t>
+          <t>19197</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,14 +1631,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4739</t>
+          <t>4830</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>22180</t>
+          <t>23245</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1658,14 +1658,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4556</t>
+          <t>4641</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>28030</t>
+          <t>29813</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4324</t>
+          <t>4366</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>29828</t>
+          <t>32528</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1719,7 +1719,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>32344</t>
+          <t>33007</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4167</t>
+          <t>4238</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>33918</t>
+          <t>34027</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,14 +1766,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4111</t>
+          <t>4198</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>34012</t>
+          <t>34245</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4108</t>
+          <t>4190</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>36782</t>
+          <t>34728</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4002</t>
+          <t>4171</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>37492</t>
+          <t>38547</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,14 +1847,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>3993</t>
+          <t>4013</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>38106</t>
+          <t>39038</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3984</t>
+          <t>3996</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>42341</t>
+          <t>42906</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>59020292</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Sharnoth</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3585</t>
+          <t>3654</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>43281</t>
+          <t>42938</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>59020292</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>Sharnoth</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3498</t>
+          <t>3651</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>44505</t>
+          <t>43088</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3389</t>
+          <t>3635</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>46932</t>
+          <t>43201</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3191</t>
+          <t>3624</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>47079</t>
+          <t>46766</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3180</t>
+          <t>3287</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>58109</t>
+          <t>49929</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2685</t>
+          <t>3049</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>58689</t>
+          <t>58025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,14 +2063,14 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2668</t>
+          <t>2716</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>63362</t>
+          <t>64261</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2124,7 +2124,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>55251</t>
+          <t>54931</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2144,14 +2144,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2775</t>
+          <t>2819</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>62284</t>
+          <t>61829</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2589</t>
+          <t>2618</t>
         </is>
       </c>
     </row>
@@ -2232,7 +2232,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>39056</t>
+          <t>39446</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2252,14 +2252,14 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>3913</t>
+          <t>3992</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>70626</t>
+          <t>67224</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2279,14 +2279,14 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2479</t>
+          <t>2524</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>42212</t>
+          <t>38278</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2306,14 +2306,14 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>4026</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>46301</t>
+          <t>47407</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2333,14 +2333,14 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>3234</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>49352</t>
+          <t>50465</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2360,14 +2360,14 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3024</t>
+          <t>3018</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>55524</t>
+          <t>55691</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2387,14 +2387,14 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2766</t>
+          <t>2792</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>71178</t>
+          <t>71847</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2414,14 +2414,14 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2466</t>
+          <t>2462</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>88080</t>
+          <t>88549</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2441,14 +2441,14 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>1985</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>105859</t>
+          <t>107428</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2475,7 +2475,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>108763</t>
+          <t>108191</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1446</t>
+          <t>1490</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>129689</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1200</t>
         </is>
       </c>
     </row>
@@ -2534,12 +2534,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2561,12 +2561,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2588,12 +2588,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2615,12 +2615,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2642,12 +2642,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2669,12 +2669,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2696,12 +2696,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2723,12 +2723,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2750,12 +2750,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2777,12 +2777,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2799,7 +2799,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>43829</t>
+          <t>45087</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3449</t>
+          <t>3435</t>
         </is>
       </c>
     </row>
@@ -2880,7 +2880,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>105222</t>
+          <t>106787</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2907,7 +2907,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>176560</t>
+          <t>182427</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2934,17 +2934,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>195816</t>
+          <t>175932</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>15695258</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Player-15695258</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2961,17 +2961,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>202716</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>15695258</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>Player-15695258</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3020,12 +3020,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3047,12 +3047,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3074,12 +3074,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">

--- a/Season_Trophies/88.xlsx
+++ b/Season_Trophies/88.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>67049</t>
+          <t>68051</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2526</t>
+          <t>2522</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>54801</t>
+          <t>55904</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2824</t>
+          <t>2815</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>58935</t>
+          <t>58053</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -470,14 +470,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2689</t>
+          <t>2743</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>61464</t>
+          <t>58712</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2626</t>
+          <t>2722</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>63817</t>
+          <t>64288</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43834954</t>
+          <t>27113069</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>wuhugouyun</t>
+          <t>㊥DumbSmoky</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2577</t>
+          <t>2584</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>65275</t>
+          <t>64675</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>43834954</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>wuhugouyun</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2551</t>
+          <t>2576</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>66425</t>
+          <t>66020</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>27113069</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>㊥DumbSmoky</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,14 +578,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2534</t>
+          <t>2551</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>94592</t>
+          <t>95231</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1657</t>
+          <t>1674</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>98041</t>
+          <t>99472</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -639,7 +639,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>102679</t>
+          <t>102937</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -659,14 +659,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1524</t>
+          <t>1537</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>109687</t>
+          <t>110509</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1464</t>
+          <t>1477</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>110686</t>
+          <t>112066</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1441</t>
+          <t>1445</t>
         </is>
       </c>
     </row>
@@ -828,7 +828,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>29873</t>
+          <t>32360</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -855,7 +855,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>9561</t>
+          <t>11542</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -875,14 +875,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5425</t>
+          <t>5466</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10429</t>
+          <t>11541</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -902,14 +902,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5363</t>
+          <t>5466</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>13129</t>
+          <t>13369</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -929,14 +929,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5176</t>
+          <t>5325</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>17649</t>
+          <t>18666</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -956,14 +956,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4909</t>
+          <t>5003</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20164</t>
+          <t>19788</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4786</t>
+          <t>4945</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>45472</t>
+          <t>21651</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3401</t>
+          <t>4848</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>57842</t>
+          <t>40844</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2721</t>
+          <t>3990</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>16101</t>
+          <t>58906</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>4991</t>
+          <t>2716</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>18397</t>
+          <t>63430</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4871</t>
+          <t>2601</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>18457</t>
+          <t>13817</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4868</t>
+          <t>5295</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>20730</t>
+          <t>15215</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4759</t>
+          <t>5198</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20921</t>
+          <t>15389</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4749</t>
+          <t>5187</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>22902</t>
+          <t>18580</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4657</t>
+          <t>5007</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>28822</t>
+          <t>20464</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4406</t>
+          <t>4908</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>30452</t>
+          <t>21428</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4341</t>
+          <t>4861</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>30684</t>
+          <t>26029</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4332</t>
+          <t>4633</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>31315</t>
+          <t>27220</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4307</t>
+          <t>4580</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>33006</t>
+          <t>29568</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4238</t>
+          <t>4486</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>36888</t>
+          <t>30263</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4083</t>
+          <t>4457</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>37183</t>
+          <t>32136</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4071</t>
+          <t>4373</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>7308</t>
+          <t>32812</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5599</t>
+          <t>4343</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>10607</t>
+          <t>37654</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5350</t>
+          <t>4128</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>11987</t>
+          <t>40295</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5253</t>
+          <t>4001</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>13164</t>
+          <t>6717</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5173</t>
+          <t>5875</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>13159</t>
+          <t>9817</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>49043337</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>FanXiFang1976</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5173</t>
+          <t>5604</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>13786</t>
+          <t>11646</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,14 +1550,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5129</t>
+          <t>5459</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>15793</t>
+          <t>13694</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5005</t>
+          <t>5302</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>16910</t>
+          <t>15139</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>49043337</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>FanXiFang1976</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4948</t>
+          <t>5202</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>19197</t>
+          <t>16542</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4830</t>
+          <t>5118</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>23245</t>
+          <t>18616</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4641</t>
+          <t>5005</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>29813</t>
+          <t>18667</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4366</t>
+          <t>5003</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>32528</t>
+          <t>27020</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4259</t>
+          <t>4589</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>33007</t>
+          <t>29596</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4238</t>
+          <t>4485</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>34027</t>
+          <t>32843</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,14 +1766,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4198</t>
+          <t>4342</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>34245</t>
+          <t>34160</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1793,14 +1793,14 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4190</t>
+          <t>4285</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>34728</t>
+          <t>34759</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1820,14 +1820,14 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4171</t>
+          <t>4258</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>38547</t>
+          <t>38271</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1847,14 +1847,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4013</t>
+          <t>4101</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>39038</t>
+          <t>38470</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>3996</t>
+          <t>4093</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>42906</t>
+          <t>39215</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3654</t>
+          <t>4056</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>42938</t>
+          <t>41448</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>59020292</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Sharnoth</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3651</t>
+          <t>3944</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>43088</t>
+          <t>42257</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3635</t>
+          <t>3846</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>43201</t>
+          <t>43369</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3624</t>
+          <t>3721</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>46766</t>
+          <t>43572</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>59020292</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Sharnoth</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,14 +2009,14 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3287</t>
+          <t>3698</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>49929</t>
+          <t>44846</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3049</t>
+          <t>3560</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>58025</t>
+          <t>46985</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2716</t>
+          <t>3349</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>64261</t>
+          <t>57918</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2569</t>
+          <t>2748</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>54931</t>
+          <t>53854</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2144,14 +2144,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2819</t>
+          <t>2897</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>61829</t>
+          <t>60875</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>2660</t>
         </is>
       </c>
     </row>
@@ -2232,7 +2232,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>39446</t>
+          <t>32742</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>3992</t>
+          <t>4347</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>67224</t>
+          <t>39878</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>28855852</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>tiger</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2524</t>
+          <t>4024</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>38278</t>
+          <t>47929</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4026</t>
+          <t>3270</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>47407</t>
+          <t>51010</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3234</t>
+          <t>3041</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>50465</t>
+          <t>54971</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>3018</t>
+          <t>2850</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>55691</t>
+          <t>72540</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2792</t>
+          <t>2461</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>71847</t>
+          <t>89596</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2462</t>
+          <t>1980</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>88549</t>
+          <t>108897</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1496</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>107428</t>
+          <t>109727</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,24 +2468,24 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1496</t>
+          <t>1489</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>108191</t>
+          <t>128725</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1490</t>
+          <t>1229</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>129689</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1200</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2534,12 +2534,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2561,12 +2561,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2588,12 +2588,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2615,12 +2615,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2642,12 +2642,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2669,12 +2669,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2696,12 +2696,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2723,12 +2723,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2750,12 +2750,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2772,44 +2772,44 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>43111</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3751</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>45087</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,7 +2819,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>3435</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2831,12 +2831,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2853,17 +2853,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>108258</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>59106471</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>anime</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1498</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>106787</t>
+          <t>188179</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>59106471</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>anime</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1498</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>182427</t>
+          <t>181326</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2934,17 +2934,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>175932</t>
+          <t>209618</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>15695258</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>Player-15695258</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2961,17 +2961,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>202716</t>
+          <t>999999</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>15695258</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Player-15695258</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2993,12 +2993,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3020,12 +3020,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3047,12 +3047,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3074,12 +3074,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3101,12 +3101,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3128,12 +3128,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3155,12 +3155,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3182,12 +3182,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>59112086</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>sigma</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3196,33 +3196,6 @@
         </is>
       </c>
       <c r="E105" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>999999</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>59112086</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>三馆</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/88.xlsx
+++ b/Season_Trophies/88.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>68051</t>
+          <t>67687</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2522</t>
+          <t>2536</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>55904</t>
+          <t>55002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2815</t>
+          <t>2883</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>58053</t>
+          <t>57512</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>41849539</t>
+          <t>42558469</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>三号馆馆主</t>
+          <t>palyer25524836</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,24 +470,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2743</t>
+          <t>2788</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>58712</t>
+          <t>59033</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>42558469</t>
+          <t>41849539</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>palyer25524836</t>
+          <t>三号馆馆主</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2722</t>
+          <t>2737</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>64288</t>
+          <t>63984</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>27113069</t>
+          <t>43834954</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>㊥DumbSmoky</t>
+          <t>wuhugouyun</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2584</t>
+          <t>2605</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>64675</t>
+          <t>64985</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>43834954</t>
+          <t>27113069</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>wuhugouyun</t>
+          <t>㊥DumbSmoky</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,14 +551,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2576</t>
+          <t>2584</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>66020</t>
+          <t>66732</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>95231</t>
+          <t>95742</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,14 +605,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1674</t>
+          <t>1697</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>99472</t>
+          <t>100845</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -639,7 +639,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>102937</t>
+          <t>102290</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -659,14 +659,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1537</t>
+          <t>1566</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>110509</t>
+          <t>112045</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1477</t>
+          <t>1476</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>112066</t>
+          <t>113722</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1445</t>
+          <t>1444</t>
         </is>
       </c>
     </row>
@@ -828,7 +828,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>32360</t>
+          <t>34413</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -855,7 +855,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>11542</t>
+          <t>8885</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -875,14 +875,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5466</t>
+          <t>5873</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>11541</t>
+          <t>11293</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -902,14 +902,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5466</t>
+          <t>5672</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>13369</t>
+          <t>14364</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -929,14 +929,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5325</t>
+          <t>5412</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>18666</t>
+          <t>17106</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -956,14 +956,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5003</t>
+          <t>5233</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>19788</t>
+          <t>17517</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -983,14 +983,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4945</t>
+          <t>5210</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>21651</t>
+          <t>20645</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1010,14 +1010,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4848</t>
+          <t>5030</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>40844</t>
+          <t>39375</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1037,14 +1037,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>3990</t>
+          <t>4118</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>58906</t>
+          <t>59901</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2716</t>
+          <t>2711</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>63430</t>
+          <t>64199</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1098,7 +1098,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>13817</t>
+          <t>13907</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5295</t>
+          <t>5448</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>15215</t>
+          <t>16174</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5198</t>
+          <t>5290</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>15389</t>
+          <t>16679</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,14 +1172,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5187</t>
+          <t>5258</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>18580</t>
+          <t>17930</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5007</t>
+          <t>5187</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20464</t>
+          <t>21371</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1226,14 +1226,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4908</t>
+          <t>4992</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>21428</t>
+          <t>22393</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4861</t>
+          <t>4934</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>26029</t>
+          <t>24529</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4633</t>
+          <t>4815</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>27220</t>
+          <t>27817</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,14 +1307,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4580</t>
+          <t>4657</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>29568</t>
+          <t>31679</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1334,14 +1334,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4486</t>
+          <t>4492</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>30263</t>
+          <t>33066</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4457</t>
+          <t>4425</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>32136</t>
+          <t>33459</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1388,14 +1388,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4373</t>
+          <t>4407</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>32812</t>
+          <t>33508</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4343</t>
+          <t>4405</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>37654</t>
+          <t>37740</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4128</t>
+          <t>4203</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>40295</t>
+          <t>38844</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,14 +1469,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4001</t>
+          <t>4146</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6717</t>
+          <t>6816</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1496,14 +1496,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5875</t>
+          <t>6077</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>9817</t>
+          <t>9028</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1523,14 +1523,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5604</t>
+          <t>5860</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>11646</t>
+          <t>11950</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5459</t>
+          <t>5616</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>13694</t>
+          <t>13459</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>49043337</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>FanXiFang1976</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5302</t>
+          <t>5485</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>15139</t>
+          <t>15400</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>49043337</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>FanXiFang1976</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,14 +1604,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>5202</t>
+          <t>5337</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>16542</t>
+          <t>17794</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1631,14 +1631,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5118</t>
+          <t>5195</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>18616</t>
+          <t>18786</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1658,14 +1658,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5005</t>
+          <t>5134</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>18667</t>
+          <t>21718</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5003</t>
+          <t>4973</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>27020</t>
+          <t>22844</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1712,14 +1712,14 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4589</t>
+          <t>4909</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>29596</t>
+          <t>30759</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1739,14 +1739,14 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4485</t>
+          <t>4531</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>32843</t>
+          <t>32794</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1766,14 +1766,14 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4342</t>
+          <t>4439</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>34160</t>
+          <t>33325</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4285</t>
+          <t>4414</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>34759</t>
+          <t>35126</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4258</t>
+          <t>4329</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>38271</t>
+          <t>35157</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4101</t>
+          <t>4327</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>38470</t>
+          <t>36631</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4093</t>
+          <t>4259</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>39215</t>
+          <t>39108</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4056</t>
+          <t>4132</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>41448</t>
+          <t>39231</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>3944</t>
+          <t>4126</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>42257</t>
+          <t>42207</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3846</t>
+          <t>3971</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>43369</t>
+          <t>42625</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,14 +1982,14 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3721</t>
+          <t>3924</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>43572</t>
+          <t>43591</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3698</t>
+          <t>3809</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>44846</t>
+          <t>44090</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,14 +2036,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3560</t>
+          <t>3747</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>46985</t>
+          <t>46481</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2063,14 +2063,14 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3349</t>
+          <t>3479</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>57918</t>
+          <t>56819</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2748</t>
+          <t>2812</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>53854</t>
+          <t>54107</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2144,14 +2144,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2897</t>
+          <t>2923</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>60875</t>
+          <t>60109</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2660</t>
+          <t>2705</t>
         </is>
       </c>
     </row>
@@ -2232,7 +2232,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>32742</t>
+          <t>30798</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2252,14 +2252,14 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4347</t>
+          <t>4529</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>39878</t>
+          <t>34285</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2279,14 +2279,14 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4024</t>
+          <t>4370</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>47929</t>
+          <t>48163</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2306,14 +2306,14 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3270</t>
+          <t>3316</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>51010</t>
+          <t>51384</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2333,14 +2333,14 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3041</t>
+          <t>3067</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>54971</t>
+          <t>54930</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2360,14 +2360,14 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2850</t>
+          <t>2887</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>72540</t>
+          <t>73183</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2387,14 +2387,14 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2461</t>
+          <t>2460</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>89596</t>
+          <t>90594</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2414,14 +2414,14 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1974</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>108897</t>
+          <t>110350</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2448,7 +2448,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>109727</t>
+          <t>111487</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2468,14 +2468,14 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1489</t>
+          <t>1485</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>128725</t>
+          <t>131314</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1229</t>
+          <t>1226</t>
         </is>
       </c>
     </row>
@@ -2772,7 +2772,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>43111</t>
+          <t>44195</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3751</t>
+          <t>3734</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>108258</t>
+          <t>109705</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2880,7 +2880,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>188179</t>
+          <t>193865</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2907,7 +2907,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>181326</t>
+          <t>186662</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2934,7 +2934,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>209618</t>
+          <t>216539</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">

--- a/Season_Trophies/88.xlsx
+++ b/Season_Trophies/88.xlsx
@@ -396,7 +396,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>67687</t>
+          <t>68496</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -416,14 +416,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2536</t>
+          <t>2534</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>55002</t>
+          <t>52565</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -443,14 +443,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2883</t>
+          <t>3042</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>57512</t>
+          <t>55846</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -470,14 +470,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2788</t>
+          <t>2880</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>59033</t>
+          <t>58972</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,14 +497,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2737</t>
+          <t>2763</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>63984</t>
+          <t>65038</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -524,14 +524,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2605</t>
+          <t>2597</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>64985</t>
+          <t>65680</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -558,7 +558,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>66732</t>
+          <t>67420</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>95742</t>
+          <t>96803</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1697</t>
+          <t>1700</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>100845</t>
+          <t>101322</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>44437839</t>
+          <t>59231345</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>strangetamer828</t>
+          <t>Player-59231345</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1587</t>
+          <t>1602</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>102290</t>
+          <t>102250</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>59231345</t>
+          <t>44437839</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Player-59231345</t>
+          <t>strangetamer828</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,14 +659,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1566</t>
+          <t>1587</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>112045</t>
+          <t>113592</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>113722</t>
+          <t>114728</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1444</t>
+          <t>1456</t>
         </is>
       </c>
     </row>
@@ -828,7 +828,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>34413</t>
+          <t>36127</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -855,17 +855,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>8885</t>
+          <t>10919</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5873</t>
+          <t>5894</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>11293</t>
+          <t>10716</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,14 +902,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5672</t>
+          <t>5912</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>14364</t>
+          <t>13882</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -929,14 +929,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5412</t>
+          <t>5605</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>17106</t>
+          <t>18483</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -956,14 +956,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5233</t>
+          <t>5287</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>17517</t>
+          <t>18780</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -983,14 +983,14 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5210</t>
+          <t>5271</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>20645</t>
+          <t>23027</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1010,14 +1010,14 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5030</t>
+          <t>5019</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>39375</t>
+          <t>39859</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1037,14 +1037,14 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4118</t>
+          <t>4162</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>59901</t>
+          <t>59895</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1064,14 +1064,14 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2711</t>
+          <t>2733</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>64199</t>
+          <t>64849</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1098,7 +1098,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>13907</t>
+          <t>14835</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1118,14 +1118,14 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5448</t>
+          <t>5527</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>16174</t>
+          <t>16518</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1145,14 +1145,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5290</t>
+          <t>5406</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>16679</t>
+          <t>16649</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1172,14 +1172,14 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5258</t>
+          <t>5398</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>17930</t>
+          <t>17899</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5187</t>
+          <t>5318</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>21371</t>
+          <t>21477</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1226,14 +1226,14 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4992</t>
+          <t>5111</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>22393</t>
+          <t>22219</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1253,14 +1253,14 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4934</t>
+          <t>5066</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>24529</t>
+          <t>24657</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1280,14 +1280,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4815</t>
+          <t>4921</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>27817</t>
+          <t>28146</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4657</t>
+          <t>4740</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>31679</t>
+          <t>30960</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4492</t>
+          <t>4611</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>33066</t>
+          <t>33100</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,14 +1361,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4425</t>
+          <t>4515</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>33459</t>
+          <t>33547</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4407</t>
+          <t>4495</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>33508</t>
+          <t>34026</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4405</t>
+          <t>4473</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>37740</t>
+          <t>38374</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4203</t>
+          <t>4243</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>38844</t>
+          <t>40777</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,14 +1469,14 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4146</t>
+          <t>4110</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6816</t>
+          <t>6598</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1496,14 +1496,14 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>6077</t>
+          <t>6302</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>9028</t>
+          <t>9035</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1523,14 +1523,14 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5860</t>
+          <t>6047</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>11950</t>
+          <t>13673</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1550,14 +1550,14 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5616</t>
+          <t>5625</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>13459</t>
+          <t>13743</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1577,14 +1577,14 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5485</t>
+          <t>5618</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>15400</t>
+          <t>14481</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1604,14 +1604,14 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>5337</t>
+          <t>5554</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>17794</t>
+          <t>17141</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1631,14 +1631,14 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5195</t>
+          <t>5365</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>18786</t>
+          <t>17662</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1658,14 +1658,14 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5134</t>
+          <t>5333</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>21718</t>
+          <t>20312</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4973</t>
+          <t>5184</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>22844</t>
+          <t>24863</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1719,17 +1719,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>30759</t>
+          <t>30397</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4531</t>
+          <t>4636</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>32794</t>
+          <t>30416</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4439</t>
+          <t>4635</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>33325</t>
+          <t>33414</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4414</t>
+          <t>4502</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>35126</t>
+          <t>33703</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4329</t>
+          <t>4488</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>35157</t>
+          <t>33874</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,14 +1847,14 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4327</t>
+          <t>4481</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>36631</t>
+          <t>36565</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4259</t>
+          <t>4340</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>39108</t>
+          <t>37228</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,14 +1901,14 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4132</t>
+          <t>4304</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>39231</t>
+          <t>40264</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1928,14 +1928,14 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4126</t>
+          <t>4138</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>42207</t>
+          <t>41837</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>3971</t>
+          <t>4041</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>42625</t>
+          <t>41880</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>3924</t>
+          <t>4039</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>43591</t>
+          <t>42749</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>59020292</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Sharnoth</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3809</t>
+          <t>3992</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>44090</t>
+          <t>43420</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>59020292</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>Sharnoth</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,14 +2036,14 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3747</t>
+          <t>3934</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>46481</t>
+          <t>46807</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2063,14 +2063,14 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3479</t>
+          <t>3527</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>56819</t>
+          <t>56723</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2812</t>
+          <t>2844</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>54107</t>
+          <t>54328</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2144,14 +2144,14 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2923</t>
+          <t>2952</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>60109</t>
+          <t>60888</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2232,7 +2232,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>30798</t>
+          <t>31015</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2252,14 +2252,14 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4529</t>
+          <t>4608</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>34285</t>
+          <t>35294</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2279,14 +2279,14 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4370</t>
+          <t>4406</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>48163</t>
+          <t>48519</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2306,14 +2306,14 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3316</t>
+          <t>3355</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>51384</t>
+          <t>51962</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2333,14 +2333,14 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3067</t>
+          <t>3081</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>54930</t>
+          <t>54680</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2360,14 +2360,14 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2887</t>
+          <t>2933</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>73183</t>
+          <t>72193</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2387,14 +2387,14 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2460</t>
+          <t>2490</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>90594</t>
+          <t>91523</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1974</t>
+          <t>1972</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>110350</t>
+          <t>111655</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1496</t>
+          <t>1497</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>111487</t>
+          <t>111889</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,14 +2468,14 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1485</t>
+          <t>1496</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>131314</t>
+          <t>133824</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2772,7 +2772,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>44195</t>
+          <t>45123</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3734</t>
+          <t>3720</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>109705</t>
+          <t>111254</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2880,7 +2880,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>193865</t>
+          <t>200235</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2907,7 +2907,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>186662</t>
+          <t>192541</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2934,7 +2934,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>216539</t>
+          <t>224374</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">

--- a/Season_Trophies/88.xlsx
+++ b/Season_Trophies/88.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E105"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -396,17 +396,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>68496</t>
+          <t>68017</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>42542275</t>
+          <t>7587898</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>"同 风 雨"</t>
+          <t>藍精靈ᶻᵍˣ</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -416,24 +416,24 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2534</t>
+          <t>2551</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>52565</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>56100131</t>
+          <t>23687250</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>♪iran†★</t>
+          <t>"jetlijp ᶻᵍˣ"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -443,24 +443,24 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3042</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>55846</t>
+          <t>66299</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>42558469</t>
+          <t>27113069</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>palyer25524836</t>
+          <t>㊥DumbSmoky</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -470,14 +470,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2880</t>
+          <t>2584</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>58972</t>
+          <t>56829</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -497,24 +497,24 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2763</t>
+          <t>2866</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>65038</t>
+          <t>67440</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>43834954</t>
+          <t>42542275</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>wuhugouyun</t>
+          <t>"同 风 雨"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -524,24 +524,24 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2597</t>
+          <t>2562</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>65680</t>
+          <t>55760</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>27113069</t>
+          <t>42558469</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>㊥DumbSmoky</t>
+          <t>palyer25524836</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -551,24 +551,24 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2584</t>
+          <t>2911</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>67420</t>
+          <t>65748</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>7587898</t>
+          <t>43834954</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>藍精靈ᶻᵍˣ</t>
+          <t>wuhugouyun</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -578,24 +578,24 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2551</t>
+          <t>2595</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>96803</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>59222805</t>
+          <t>44437839</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CAMILO</t>
+          <t>strangetamer828</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -605,24 +605,24 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1700</t>
+          <t>1587</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>101322</t>
+          <t>53175</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>59231345</t>
+          <t>56100131</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Player-59231345</t>
+          <t>♪iran†★</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -632,24 +632,24 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1602</t>
+          <t>3047</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>102250</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>44437839</t>
+          <t>59093405</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>strangetamer828</t>
+          <t>永恒不朽6</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -659,24 +659,24 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1587</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>113592</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>59166269</t>
+          <t>59095922</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Player-59166269</t>
+          <t>xxxx7</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -686,24 +686,24 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1476</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>114728</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>59206405</t>
+          <t>59100545</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>pro-59206405</t>
+          <t>"black dragon"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -713,24 +713,24 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1456</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>23687250</t>
+          <t>59166269</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>"jetlijp ᶻᵍˣ"</t>
+          <t>Player-59166269</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -740,24 +740,24 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1496</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>59100545</t>
+          <t>59206405</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>"black dragon"</t>
+          <t>pro-59206405</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -767,24 +767,24 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1454</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>96429</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>59093405</t>
+          <t>59222805</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>永恒不朽6</t>
+          <t>CAMILO</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -794,24 +794,24 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1742</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>59095922</t>
+          <t>59231345</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>xxxx7</t>
+          <t>Player-59231345</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -821,24 +821,24 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1624</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>36127</t>
+          <t>41909</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>1304123</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>"Zephyr zgx"</t>
+          <t>Cccccccccccc</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -848,24 +848,24 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>4364</t>
+          <t>4091</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>10919</t>
+          <t>57152</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>1550355</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>"皓茵 世界"</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -875,24 +875,24 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5894</t>
+          <t>2854</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10716</t>
+          <t>30039</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>3649043</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>Dj6106</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -902,24 +902,24 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5912</t>
+          <t>4724</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>13882</t>
+          <t>18151</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>4756174</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>純希です</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -929,24 +929,24 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>5605</t>
+          <t>5413</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>18483</t>
+          <t>15695</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4756174</t>
+          <t>6809364</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>純希です</t>
+          <t>"Scorp IP"</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -956,24 +956,24 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5287</t>
+          <t>5579</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>18780</t>
+          <t>6617</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>7852598</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>seiji</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -983,24 +983,24 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5271</t>
+          <t>6485</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>23027</t>
+          <t>13897</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>8057001</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>㊥兵者诡道也</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1010,24 +1010,24 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5019</t>
+          <t>5736</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>39859</t>
+          <t>9810</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>12333251</t>
+          <t>11582001</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>"㊌ Mingxuan"</t>
+          <t>iMinatoX4</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1037,24 +1037,24 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4162</t>
+          <t>6147</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>59895</t>
+          <t>40254</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>12333251</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>"㊌ Mingxuan"</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1064,24 +1064,24 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2733</t>
+          <t>4193</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>64849</t>
+          <t>26418</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2601</t>
+          <t>4909</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>14835</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5527</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>16518</t>
+          <t>21649</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>8057001</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>㊥兵者诡道也</t>
+          <t>66666</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5406</t>
+          <t>5221</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>16649</t>
+          <t>16212</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5398</t>
+          <t>5542</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>17899</t>
+          <t>16751</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5318</t>
+          <t>5505</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>21477</t>
+          <t>24680</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5111</t>
+          <t>5015</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>22219</t>
+          <t>33875</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5066</t>
+          <t>4556</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>24657</t>
+          <t>65450</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4921</t>
+          <t>2601</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>28146</t>
+          <t>19129</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4740</t>
+          <t>5358</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>30960</t>
+          <t>31214</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3649043</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Dj6106</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4611</t>
+          <t>4673</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>33100</t>
+          <t>21736</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4515</t>
+          <t>5216</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>33547</t>
+          <t>12903</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4495</t>
+          <t>5849</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>34026</t>
+          <t>29387</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4473</t>
+          <t>4755</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>38374</t>
+          <t>60627</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4243</t>
+          <t>2731</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>40777</t>
+          <t>30612</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1304123</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Cccccccccccc</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4110</t>
+          <t>4700</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6598</t>
+          <t>46784</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>7852598</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>seiji</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>6302</t>
+          <t>3600</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>9035</t>
+          <t>13419</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>11582001</t>
+          <t>49043337</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>iMinatoX4</t>
+          <t>FanXiFang1976</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>6047</t>
+          <t>5787</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>13673</t>
+          <t>11659</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5625</t>
+          <t>6019</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>13743</t>
+          <t>38893</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>49043337</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>FanXiFang1976</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5618</t>
+          <t>4271</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>14481</t>
+          <t>42440</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>5554</t>
+          <t>4050</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>17141</t>
+          <t>10747</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6809364</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>"Scorp IP"</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>5365</t>
+          <t>6077</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>17662</t>
+          <t>13877</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5333</t>
+          <t>5739</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20312</t>
+          <t>21786</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5184</t>
+          <t>5212</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>24863</t>
+          <t>16162</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4909</t>
+          <t>5545</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>30397</t>
+          <t>24104</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4636</t>
+          <t>5049</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>30416</t>
+          <t>16439</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4635</t>
+          <t>5526</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>33414</t>
+          <t>41082</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4502</t>
+          <t>4145</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>33703</t>
+          <t>21126</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4488</t>
+          <t>5247</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>33874</t>
+          <t>25741</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4481</t>
+          <t>4947</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>36565</t>
+          <t>15732</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4340</t>
+          <t>5577</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>37228</t>
+          <t>34329</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4304</t>
+          <t>4535</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>40264</t>
+          <t>35187</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4138</t>
+          <t>4492</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>41837</t>
+          <t>35943</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4041</t>
+          <t>4449</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>41880</t>
+          <t>32956</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4039</t>
+          <t>4594</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>42749</t>
+          <t>41857</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>3992</t>
+          <t>4095</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>43420</t>
+          <t>40031</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>59020292</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Sharnoth</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3934</t>
+          <t>4204</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>46807</t>
+          <t>39083</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>3527</t>
+          <t>4259</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>56723</t>
+          <t>32952</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1550355</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"皓茵 世界"</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2844</t>
+          <t>4594</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>43036</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>59020292</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>Sharnoth</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,24 +2117,24 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4007</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>54328</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>41837764</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>好风光会长</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2144,24 +2144,24 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2952</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>60888</t>
+          <t>54204</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2705</t>
+          <t>2993</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>71285</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2502</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>36132</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4437</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>31015</t>
+          <t>92306</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4608</t>
+          <t>1972</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>35294</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,24 +2279,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4406</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>48519</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2306,24 +2306,24 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3355</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>51962</t>
+          <t>54695</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>41837764</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>好风光会长</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>3081</t>
+          <t>2964</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>54680</t>
+          <t>59977</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2933</t>
+          <t>2752</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>72193</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2490</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>91523</t>
+          <t>31659</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>4652</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>111655</t>
+          <t>46612</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1497</t>
+          <t>3621</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>111889</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,14 +2468,14 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1496</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>133824</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2495,24 +2495,24 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1226</t>
+          <t>1225</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1496</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>51979</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,14 +2549,14 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3126</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2583,17 +2583,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2610,17 +2610,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,24 +2630,24 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1525</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2664,17 +2664,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2691,7 +2691,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2718,7 +2718,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2745,7 +2745,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2772,17 +2772,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>45123</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>15695258</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>Player-15695258</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2792,24 +2792,24 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>3720</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2819,24 +2819,24 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2853,17 +2853,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>111254</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>59106471</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>anime</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2873,24 +2873,24 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>1498</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>200235</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2900,24 +2900,24 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>192541</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2934,17 +2934,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>224374</t>
+          <t>45837</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>15695258</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Player-15695258</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>3713</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,24 +2981,24 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3015,17 +3015,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3042,17 +3042,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3069,17 +3069,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3096,17 +3096,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3123,17 +3123,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3150,17 +3150,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>59106471</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>anime</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,14 +3170,14 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1498</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>999999</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -3196,6 +3196,249 @@
         </is>
       </c>
       <c r="E105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>71461</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>6010122</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>"Edward Peng"</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>8850180</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>30624300</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>9195340</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Namllllllik</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>69265</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>9913517</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>"Kenny Chan"</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>10636651</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>"Ismail Aflou"</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>12648101</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>"player 198827"</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>71670</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>15755724</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>"Last Good"</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>28624723</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>"Woody Shade"</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>64399</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>41848598</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>国家一级保护沙雕</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/88.xlsx
+++ b/Season_Trophies/88.xlsx
@@ -622,7 +622,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>♪iran†★</t>
+          <t>"°my from irannn°"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">

--- a/Season_Trophies/88.xlsx
+++ b/Season_Trophies/88.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E114"/>
+  <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1071,17 +1071,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>26418</t>
+          <t>24995</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>20737010</t>
+          <t>15521725</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>混着玩...</t>
+          <t>"☆ Mista Moe ᴰ☆ᴬ"</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4909</t>
+          <t>4525</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5011</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>24733875</t>
+          <t>6912027</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>龍少</t>
+          <t>"☆ Han Solo ᴰ☆ᴬ"</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4523</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>21649</t>
+          <t>1538</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>27484940</t>
+          <t>8744575</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>66666</t>
+          <t>"☆ Yoshi ᴰ☆ᴬ"</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5221</t>
+          <t>4820</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>16212</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>31134300</t>
+          <t>5006279</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>McMaX</t>
+          <t>Heimsuchung</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5542</t>
+          <t>4787</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>16751</t>
+          <t>1845</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>31495601</t>
+          <t>21234684</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>陈晓军</t>
+          <t>"☆ Pitbull ᴰ☆ᴬ"</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5505</t>
+          <t>4783</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>24680</t>
+          <t>1876</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>32316256</t>
+          <t>11320247</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"秋の風 .."</t>
+          <t>"☆Dirkhellwig D☆A"</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5015</t>
+          <t>4780</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>33875</t>
+          <t>1994</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>37069173</t>
+          <t>5484971</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>詹toniii</t>
+          <t>"☆ Imperator ᴰ☆ᴬ"</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4556</t>
+          <t>4766</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>65450</t>
+          <t>2010</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>37861953</t>
+          <t>6496177</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"Durex ๑• . •๑"</t>
+          <t>"☆tobinette ᴰ☆ᴬ"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2601</t>
+          <t>4764</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>19129</t>
+          <t>2268</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>38809086</t>
+          <t>18460704</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Kouenᶻᵍˣ</t>
+          <t>James</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>5358</t>
+          <t>4737</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>31214</t>
+          <t>2510</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>38893233</t>
+          <t>32765936</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"快乐 二哈"</t>
+          <t>"☆Hold on</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>4673</t>
+          <t>Ukraine"</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>21736</t>
+          <t>2600</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>38995116</t>
+          <t>13895849</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"Ramesh Pavai Nam"</t>
+          <t>"☆Rednex112 D☆A"</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5216</t>
+          <t>4705</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>12903</t>
+          <t>2679</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>45967307</t>
+          <t>15905635</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Ricky</t>
+          <t>MV-SN</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5849</t>
+          <t>4697</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>29387</t>
+          <t>3036</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>46289694</t>
+          <t>49768852</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>㊥Vincent</t>
+          <t>"☆ Joulina ᴰ☆ᴬ"</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4755</t>
+          <t>4662</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>60627</t>
+          <t>16162</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>47146736</t>
+          <t>543724</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>"HK 品瑜"</t>
+          <t>45514058</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2731</t>
+          <t>"☆ David Lee24104</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>30612</t>
+          <t>16439</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>47459684</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>㊥阿闹切克闹</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4700</t>
+          <t>5526</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>46784</t>
+          <t>41082</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>48634530</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>leezhenrui</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>4145</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>13419</t>
+          <t>21126</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>49043337</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>FanXiFang1976</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5787</t>
+          <t>5247</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>11659</t>
+          <t>25741</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>49710892</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MMMMMMM</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>6019</t>
+          <t>4947</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>38893</t>
+          <t>15732</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>50837459</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NINE日</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4271</t>
+          <t>5577</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>42440</t>
+          <t>34329</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>52997727</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>larios</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4050</t>
+          <t>4535</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>10747</t>
+          <t>35187</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>53060417</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>㊥老纳信耶稣</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>6077</t>
+          <t>4492</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>13877</t>
+          <t>35943</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>53520939</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>㊥虎哥tiger</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5739</t>
+          <t>4449</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>21786</t>
+          <t>32956</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>54085771</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>㊥Matthieu</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>5212</t>
+          <t>4594</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>16162</t>
+          <t>41857</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>54698813</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>閃亮唐老鴨</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>5545</t>
+          <t>4095</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>24104</t>
+          <t>40031</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>54778421</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Emma</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>5049</t>
+          <t>4204</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>16439</t>
+          <t>39083</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>5526</t>
+          <t>4259</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>41082</t>
+          <t>32952</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4145</t>
+          <t>4594</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>21126</t>
+          <t>43036</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>59020292</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>Sharnoth</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,24 +1820,20 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>5247</t>
+          <t>4007</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>25741</t>
-        </is>
-      </c>
+      <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>"Clan Level"</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>60</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1847,24 +1843,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>4947</t>
+          <t>Members</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>15732</t>
+          <t>☆Casimirᴰ☆ᴬ</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>4356</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1874,24 +1870,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>5577</t>
+          <t>Today</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>34329</t>
+          <t>8543</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>27888466</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>Mighty-MJ</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1901,24 +1897,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4535</t>
+          <t>4349</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>35187</t>
+          <t>9993</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>11771229</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>"CᎪSᎽᏒN    ᎠsᎪ"</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1928,24 +1924,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4492</t>
+          <t>4288</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>35943</t>
+          <t>11050</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>10561382</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>☆NguyenThaiᴰ☆ᴬ</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1955,24 +1951,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4449</t>
+          <t>4244</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>32956</t>
+          <t>11810</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>13065176</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>"☆ℂ๏unt D๏๏ku ᴰ☆ᴬ"</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1982,24 +1978,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4594</t>
+          <t>4213</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>41857</t>
+          <t>11864</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>30025810</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>"☆ Schraupeᴰ☆ᴬ"</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2009,24 +2005,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4095</t>
+          <t>4210</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>40031</t>
+          <t>13408</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>8143455</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>"Time to Chillᴰ☆ᴬ"</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2036,24 +2032,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>4204</t>
+          <t>4151</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>39083</t>
+          <t>15397</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>22828148</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>"☆ Setzberg   ᴰ☆ᴬ"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2063,24 +2059,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>4259</t>
+          <t>4088</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>32952</t>
+          <t>16674</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>17298090</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>"☆ David ᴰ☆ᴬ"</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2090,24 +2086,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>4594</t>
+          <t>4051</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>43036</t>
+          <t>26499</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>59020292</t>
+          <t>4207050</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Sharnoth</t>
+          <t>"☆ Aneurysma ᴰ☆ᴬ"</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2117,51 +2113,51 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>4007</t>
+          <t>3753</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26565</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>5414538</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>"promilip ᴰ☆ᴬ"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>一馆</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3750</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>54204</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2171,24 +2167,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2993</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>71285</t>
+          <t>54204</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2198,24 +2194,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2502</t>
+          <t>2993</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>36132</t>
+          <t>71285</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2225,24 +2221,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4437</t>
+          <t>2502</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>92306</t>
+          <t>36132</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2252,24 +2248,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>4437</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>92306</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2279,7 +2275,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1972</t>
         </is>
       </c>
     </row>
@@ -2291,12 +2287,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2313,17 +2309,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>54695</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>41837764</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>好风光会长</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2333,24 +2329,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2964</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>59977</t>
+          <t>54695</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>41837764</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>好风光会长</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2360,24 +2356,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2752</t>
+          <t>2964</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>59977</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2387,24 +2383,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2752</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>31659</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2414,24 +2410,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>4652</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>46612</t>
+          <t>31659</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2441,24 +2437,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>3621</t>
+          <t>4652</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46612</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2468,7 +2464,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3621</t>
         </is>
       </c>
     </row>
@@ -2480,12 +2476,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2495,7 +2491,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>1225</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2507,12 +2503,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2522,24 +2518,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1496</t>
+          <t>1225</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>51979</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2549,24 +2545,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>3126</t>
+          <t>1496</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>51979</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2576,7 +2572,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3126</t>
         </is>
       </c>
     </row>
@@ -2588,12 +2584,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2615,12 +2611,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2630,7 +2626,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>1525</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2642,12 +2638,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2657,7 +2653,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1525</t>
         </is>
       </c>
     </row>
@@ -2669,12 +2665,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2696,12 +2692,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2723,12 +2719,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2750,12 +2746,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2777,22 +2773,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>15695258</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Player-15695258</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2804,12 +2800,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>15695258</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>Player-15695258</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2831,12 +2827,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2846,7 +2842,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
@@ -2858,12 +2854,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2885,12 +2881,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2912,12 +2908,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2927,24 +2923,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>45837</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2954,24 +2950,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>3713</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45837</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2981,7 +2977,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>3713</t>
         </is>
       </c>
     </row>
@@ -2993,12 +2989,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3008,7 +3004,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
@@ -3020,12 +3016,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3047,12 +3043,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3074,12 +3070,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3101,12 +3097,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3128,12 +3124,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3155,12 +3151,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>59106471</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>anime</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3170,7 +3166,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>1498</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3182,12 +3178,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>59112086</t>
+          <t>59106471</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>sigma</t>
+          <t>anime</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3197,29 +3193,29 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1498</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>71461</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>59112086</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>sigma</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Chinese</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3231,17 +3227,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>71461</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3263,12 +3259,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3285,17 +3281,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>69265</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3312,17 +3308,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>69265</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>10636651</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>"Ismail Aflou"</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3344,12 +3340,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>10636651</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>"Ismail Aflou"</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3366,17 +3362,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>71670</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3393,17 +3389,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>71670</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3420,25 +3416,52 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>28624723</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>"Woody Shade"</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Chinese</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
           <t>64399</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>41848598</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>国家一级保护沙雕</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>Chinese</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>0</t>
         </is>

--- a/Season_Trophies/88.xlsx
+++ b/Season_Trophies/88.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E115"/>
+  <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1071,17 +1071,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>24995</t>
+          <t>26418</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>15521725</t>
+          <t>20737010</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>"☆ Mista Moe ᴰ☆ᴬ"</t>
+          <t>混着玩...</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1091,24 +1091,24 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4525</t>
+          <t>4909</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5011</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>6912027</t>
+          <t>24733875</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>"☆ Han Solo ᴰ☆ᴬ"</t>
+          <t>龍少</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1118,24 +1118,24 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>4523</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1538</t>
+          <t>21649</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>8744575</t>
+          <t>27484940</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>"☆ Yoshi ᴰ☆ᴬ"</t>
+          <t>66666</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1145,24 +1145,24 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4820</t>
+          <t>5221</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>16212</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>5006279</t>
+          <t>31134300</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Heimsuchung</t>
+          <t>McMaX</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1172,24 +1172,24 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4787</t>
+          <t>5542</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1845</t>
+          <t>16751</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>21234684</t>
+          <t>31495601</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>"☆ Pitbull ᴰ☆ᴬ"</t>
+          <t>陈晓军</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1199,24 +1199,24 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>4783</t>
+          <t>5505</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1876</t>
+          <t>24680</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>11320247</t>
+          <t>32316256</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>"☆Dirkhellwig D☆A"</t>
+          <t>"秋の風 .."</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1226,24 +1226,24 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4780</t>
+          <t>5015</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>33875</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>5484971</t>
+          <t>37069173</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>"☆ Imperator ᴰ☆ᴬ"</t>
+          <t>詹toniii</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1253,24 +1253,24 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4766</t>
+          <t>4556</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>65450</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>6496177</t>
+          <t>37861953</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>"☆tobinette ᴰ☆ᴬ"</t>
+          <t>"Durex ๑• . •๑"</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1280,24 +1280,24 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4764</t>
+          <t>2601</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2268</t>
+          <t>19129</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>18460704</t>
+          <t>38809086</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>Kouenᶻᵍˣ</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1307,24 +1307,24 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4737</t>
+          <t>5358</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2510</t>
+          <t>31214</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>32765936</t>
+          <t>38893233</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>"☆Hold on</t>
+          <t>"快乐 二哈"</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1334,24 +1334,24 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ukraine"</t>
+          <t>4673</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2600</t>
+          <t>21736</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>13895849</t>
+          <t>38995116</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>"☆Rednex112 D☆A"</t>
+          <t>"Ramesh Pavai Nam"</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1361,24 +1361,24 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4705</t>
+          <t>5216</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2679</t>
+          <t>12903</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>15905635</t>
+          <t>45967307</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MV-SN</t>
+          <t>Ricky</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1388,24 +1388,24 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4697</t>
+          <t>5849</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3036</t>
+          <t>29387</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>49768852</t>
+          <t>46289694</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>"☆ Joulina ᴰ☆ᴬ"</t>
+          <t>㊥Vincent</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1415,24 +1415,24 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>4662</t>
+          <t>4755</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>16162</t>
+          <t>60627</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>543724</t>
+          <t>47146736</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>45514058</t>
+          <t>"HK 品瑜"</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1442,24 +1442,24 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>"☆ David Lee24104</t>
+          <t>2731</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>16439</t>
+          <t>30612</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>55317038</t>
+          <t>47459684</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>necman12345</t>
+          <t>㊥阿闹切克闹</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5526</t>
+          <t>4700</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>41082</t>
+          <t>46784</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>55634661</t>
+          <t>48634530</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Opalus</t>
+          <t>leezhenrui</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1496,24 +1496,24 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>4145</t>
+          <t>3600</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>21126</t>
+          <t>13419</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>55769051</t>
+          <t>49043337</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>㊥叮叮当.</t>
+          <t>FanXiFang1976</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1523,24 +1523,24 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5247</t>
+          <t>5787</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>25741</t>
+          <t>11659</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>55860890</t>
+          <t>49710892</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>㊥Ethan</t>
+          <t>MMMMMMM</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1550,24 +1550,24 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>4947</t>
+          <t>6019</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>15732</t>
+          <t>38893</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>56133764</t>
+          <t>50837459</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ustcarter</t>
+          <t>NINE日</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1577,24 +1577,24 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5577</t>
+          <t>4271</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>34329</t>
+          <t>42440</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>56379103</t>
+          <t>52997727</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Globalking</t>
+          <t>larios</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1604,24 +1604,24 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4535</t>
+          <t>4050</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>35187</t>
+          <t>10747</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>56573048</t>
+          <t>53060417</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Xiaotian</t>
+          <t>㊥老纳信耶稣</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1631,24 +1631,24 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4492</t>
+          <t>6077</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>35943</t>
+          <t>13877</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>56585361</t>
+          <t>53520939</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>"㊥ go策划我要ali"</t>
+          <t>㊥虎哥tiger</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1658,24 +1658,24 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4449</t>
+          <t>5739</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>32956</t>
+          <t>21786</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>56732705</t>
+          <t>54085771</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>时间温柔皆遗憾</t>
+          <t>㊥Matthieu</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1685,24 +1685,24 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4594</t>
+          <t>5212</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>41857</t>
+          <t>16162</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>57813281</t>
+          <t>54698813</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>XAUEN</t>
+          <t>閃亮唐老鴨</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1712,24 +1712,24 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>4095</t>
+          <t>5545</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>40031</t>
+          <t>24104</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>58203298</t>
+          <t>54778421</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>权旨qua</t>
+          <t>Emma</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1739,24 +1739,24 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>4204</t>
+          <t>5049</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>39083</t>
+          <t>16439</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>58408326</t>
+          <t>55317038</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>"Killer Bee"</t>
+          <t>necman12345</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1766,24 +1766,24 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4259</t>
+          <t>5526</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>32952</t>
+          <t>41082</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>58839983</t>
+          <t>55634661</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>每逢佳节胖六斤</t>
+          <t>Opalus</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1793,24 +1793,24 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>4594</t>
+          <t>4145</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>43036</t>
+          <t>21126</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>59020292</t>
+          <t>55769051</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Sharnoth</t>
+          <t>㊥叮叮当.</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1820,20 +1820,24 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4007</t>
+          <t>5247</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>25741</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>"Clan Level"</t>
+          <t>55860890</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>㊥Ethan</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1843,24 +1847,24 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Members</t>
+          <t>4947</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>☆Casimirᴰ☆ᴬ</t>
+          <t>15732</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>4356</t>
+          <t>56133764</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>ustcarter</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1870,24 +1874,24 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t>5577</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>8543</t>
+          <t>34329</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>27888466</t>
+          <t>56379103</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Mighty-MJ</t>
+          <t>Globalking</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1897,24 +1901,24 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4349</t>
+          <t>4535</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>9993</t>
+          <t>35187</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>11771229</t>
+          <t>56573048</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>"CᎪSᎽᏒN    ᎠsᎪ"</t>
+          <t>Xiaotian</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1924,24 +1928,24 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4288</t>
+          <t>4492</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>11050</t>
+          <t>35943</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>10561382</t>
+          <t>56585361</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>☆NguyenThaiᴰ☆ᴬ</t>
+          <t>"㊥ go策划我要ali"</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1951,24 +1955,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>4244</t>
+          <t>4449</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>11810</t>
+          <t>32956</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>13065176</t>
+          <t>56732705</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>"☆ℂ๏unt D๏๏ku ᴰ☆ᴬ"</t>
+          <t>时间温柔皆遗憾</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1978,24 +1982,24 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>4213</t>
+          <t>4594</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>11864</t>
+          <t>41857</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>30025810</t>
+          <t>57813281</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>"☆ Schraupeᴰ☆ᴬ"</t>
+          <t>XAUEN</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2005,24 +2009,24 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>4210</t>
+          <t>4095</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>13408</t>
+          <t>40031</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>8143455</t>
+          <t>58203298</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>"Time to Chillᴰ☆ᴬ"</t>
+          <t>权旨qua</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2032,24 +2036,24 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>4151</t>
+          <t>4204</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>15397</t>
+          <t>39083</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>22828148</t>
+          <t>58408326</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>"☆ Setzberg   ᴰ☆ᴬ"</t>
+          <t>"Killer Bee"</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2059,24 +2063,24 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>4088</t>
+          <t>4259</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>16674</t>
+          <t>32952</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>17298090</t>
+          <t>58839983</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>"☆ David ᴰ☆ᴬ"</t>
+          <t>每逢佳节胖六斤</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2086,24 +2090,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>4051</t>
+          <t>4594</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>26499</t>
+          <t>43036</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>4207050</t>
+          <t>59020292</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>"☆ Aneurysma ᴰ☆ᴬ"</t>
+          <t>Sharnoth</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2113,51 +2117,51 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>3753</t>
+          <t>4007</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>26565</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>5414538</t>
+          <t>1222440</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>"promilip ᴰ☆ᴬ"</t>
+          <t>"Sneaky Ninja Panda"</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>一馆</t>
+          <t>二馆</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3750</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>54204</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1222440</t>
+          <t>3391765</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>"Sneaky Ninja Panda"</t>
+          <t>马er</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2167,24 +2171,24 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2993</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>54204</t>
+          <t>71285</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3391765</t>
+          <t>9718882</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>马er</t>
+          <t>小霸王2021</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2194,24 +2198,24 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2993</t>
+          <t>2502</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>71285</t>
+          <t>36132</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>9718882</t>
+          <t>11645391</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>小霸王2021</t>
+          <t>"omar omar"</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2221,24 +2225,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2502</t>
+          <t>4437</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>36132</t>
+          <t>92306</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>11645391</t>
+          <t>15436348</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>"omar omar"</t>
+          <t>Lucas</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2248,24 +2252,24 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>4437</t>
+          <t>1972</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>92306</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>15436348</t>
+          <t>20372140</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Lucas</t>
+          <t>人山即是仙</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2275,7 +2279,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2287,12 +2291,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>20372140</t>
+          <t>38994054</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>人山即是仙</t>
+          <t>chengnan</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2309,17 +2313,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>54695</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>38994054</t>
+          <t>41837764</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>chengnan</t>
+          <t>好风光会长</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2329,24 +2333,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2964</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>54695</t>
+          <t>59977</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>41837764</t>
+          <t>43281368</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>好风光会长</t>
+          <t>xhs2763</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2356,24 +2360,24 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2964</t>
+          <t>2752</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>59977</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>43281368</t>
+          <t>44378757</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>xhs2763</t>
+          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2383,24 +2387,24 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2752</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>31659</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>44378757</t>
+          <t>44708798</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>"NᵉᵗʰᵉʳDʳⁱᶠᵗᵉʳ ㊥"</t>
+          <t>"㊥ mythgod"</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2410,24 +2414,24 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4652</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>31659</t>
+          <t>46612</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>44708798</t>
+          <t>47430231</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>"㊥ mythgod"</t>
+          <t>Kentantrino</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2437,24 +2441,24 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>4652</t>
+          <t>3621</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>46612</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>47430231</t>
+          <t>48738257</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Kentantrino</t>
+          <t>死亡洲际跳蛋</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2464,7 +2468,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3621</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2476,12 +2480,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>48738257</t>
+          <t>49000199</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>死亡洲际跳蛋</t>
+          <t>SlipperyForester5672</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2491,7 +2495,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1225</t>
         </is>
       </c>
     </row>
@@ -2503,12 +2507,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>49000199</t>
+          <t>54941706</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>SlipperyForester5672</t>
+          <t>AlexMenjivar20</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2518,24 +2522,24 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>1225</t>
+          <t>1496</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>51979</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>54941706</t>
+          <t>55499394</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>AlexMenjivar20</t>
+          <t>Player-55499394</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2545,24 +2549,24 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>1496</t>
+          <t>3126</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>51979</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>55499394</t>
+          <t>55810157</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Player-55499394</t>
+          <t>Beard</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2572,7 +2576,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>3126</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2584,12 +2588,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>55810157</t>
+          <t>56700848</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Beard</t>
+          <t>工口漫画老师</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2611,12 +2615,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>56700848</t>
+          <t>57219176</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>工口漫画老师</t>
+          <t>青莲道人</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2626,7 +2630,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1525</t>
         </is>
       </c>
     </row>
@@ -2638,12 +2642,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>57219176</t>
+          <t>57556179</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>青莲道人</t>
+          <t>特战新生代英雄</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2653,7 +2657,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>1525</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2665,12 +2669,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>57556179</t>
+          <t>58340439</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>特战新生代英雄</t>
+          <t>70qilin</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2692,12 +2696,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>58340439</t>
+          <t>58615925</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>70qilin</t>
+          <t>齐天的大圣</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2719,12 +2723,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>58615925</t>
+          <t>58641574</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>齐天的大圣</t>
+          <t>Player-58641574鱼</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2746,12 +2750,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>58641574</t>
+          <t>58743790</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Player-58641574鱼</t>
+          <t>Ma</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2773,22 +2777,22 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>58743790</t>
+          <t>15695258</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Ma</t>
+          <t>Player-15695258</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>二馆</t>
+          <t>三馆</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
@@ -2800,12 +2804,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>15695258</t>
+          <t>29355299</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Player-15695258</t>
+          <t>Player-29355299</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2827,12 +2831,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>29355299</t>
+          <t>41231396</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Player-29355299</t>
+          <t>ollsthebro</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2842,7 +2846,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -2854,12 +2858,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>41231396</t>
+          <t>47622456</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>ollsthebro</t>
+          <t>伊恩</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2881,12 +2885,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>47622456</t>
+          <t>49553719</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>伊恩</t>
+          <t>"Oreo Captain Sir"</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -2908,12 +2912,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>49553719</t>
+          <t>55745105</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>"Oreo Captain Sir"</t>
+          <t>eldeniz</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2923,24 +2927,24 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45837</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>55745105</t>
+          <t>56241637</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>eldeniz</t>
+          <t>Player-14day</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2950,24 +2954,24 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>3713</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>45837</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>56241637</t>
+          <t>58174442</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Player-14day</t>
+          <t>Player-58174442</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -2977,7 +2981,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>3713</t>
+          <t>1000</t>
         </is>
       </c>
     </row>
@@ -2989,12 +2993,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>58174442</t>
+          <t>58572199</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Player-58174442</t>
+          <t>你干嘛～哎呦～</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3004,7 +3008,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -3016,12 +3020,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>58572199</t>
+          <t>58671339</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>你干嘛～哎呦～</t>
+          <t>"quang pro"</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3043,12 +3047,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>58671339</t>
+          <t>58766144</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>"quang pro"</t>
+          <t>EquablePrecedence38</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3070,12 +3074,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>58766144</t>
+          <t>58910668</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>EquablePrecedence38</t>
+          <t>BrittleAuthor33</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3097,12 +3101,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>58910668</t>
+          <t>59081265</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>BrittleAuthor33</t>
+          <t>爬楼梯</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3124,12 +3128,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>59081265</t>
+          <t>59082827</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>爬楼梯</t>
+          <t>Player-59082827</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3151,12 +3155,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>59082827</t>
+          <t>59106471</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Player-59082827</t>
+          <t>anime</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3166,7 +3170,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1498</t>
         </is>
       </c>
     </row>
@@ -3178,12 +3182,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>59106471</t>
+          <t>59112086</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>anime</t>
+          <t>sigma</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3193,29 +3197,29 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>1498</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>71461</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>59112086</t>
+          <t>6010122</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>sigma</t>
+          <t>"Edward Peng"</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>三馆</t>
+          <t>Chinese</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -3227,17 +3231,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>71461</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>6010122</t>
+          <t>8850180</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>"Edward Peng"</t>
+          <t>30624300</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3259,12 +3263,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>8850180</t>
+          <t>9195340</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>30624300</t>
+          <t>Namllllllik</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3281,17 +3285,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>69265</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>9195340</t>
+          <t>9913517</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Namllllllik</t>
+          <t>"Kenny Chan"</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3308,17 +3312,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>69265</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>9913517</t>
+          <t>10636651</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>"Kenny Chan"</t>
+          <t>"Ismail Aflou"</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3340,12 +3344,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>10636651</t>
+          <t>12648101</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>"Ismail Aflou"</t>
+          <t>"player 198827"</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3362,17 +3366,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>71670</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>12648101</t>
+          <t>15755724</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>"player 198827"</t>
+          <t>"Last Good"</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -3389,17 +3393,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>71670</t>
+          <t>0</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>15755724</t>
+          <t>28624723</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>"Last Good"</t>
+          <t>"Woody Shade"</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3416,17 +3420,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>64399</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>28624723</t>
+          <t>41848598</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>"Woody Shade"</t>
+          <t>国家一级保护沙雕</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -3435,33 +3439,6 @@
         </is>
       </c>
       <c r="E114" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>64399</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>41848598</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>国家一级保护沙雕</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Chinese</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
         <is>
           <t>0</t>
         </is>
